--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="TSkill" sheetId="1" r:id="rId1"/>
+    <sheet name="THouseCell" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -573,8 +573,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -991,7 +991,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -571,10 +571,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,6 +974,111 @@
         <v>0</v>
       </c>
       <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4001</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4002</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4003</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>3000</v>
+      </c>
+      <c r="E22">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>3000</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4004</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>4000</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4005</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5000</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -153,6 +153,22 @@
   </si>
   <si>
     <t>TableName: "THouseCell" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厕所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厨房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +590,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,7 +599,7 @@
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -679,7 +695,9 @@
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -700,7 +718,9 @@
       <c r="F6">
         <v>200</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -721,7 +741,9 @@
       <c r="F7">
         <v>300</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -742,7 +764,9 @@
       <c r="F8">
         <v>400</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -763,7 +787,9 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -784,7 +810,9 @@
       <c r="F10">
         <v>10</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -805,7 +833,9 @@
       <c r="F11">
         <v>20</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -826,7 +856,9 @@
       <c r="F12">
         <v>30</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -847,7 +879,9 @@
       <c r="F13">
         <v>40</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -868,7 +902,9 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -889,7 +925,9 @@
       <c r="F15">
         <v>1000</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -910,7 +948,9 @@
       <c r="F16">
         <v>2000</v>
       </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -931,7 +971,9 @@
       <c r="F17">
         <v>3000</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -952,7 +994,9 @@
       <c r="F18">
         <v>4000</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -973,7 +1017,9 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -994,7 +1040,9 @@
       <c r="F20">
         <v>1000</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -1015,7 +1063,9 @@
       <c r="F21">
         <v>2000</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -1036,7 +1086,9 @@
       <c r="F22">
         <v>3000</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -1057,7 +1109,9 @@
       <c r="F23">
         <v>4000</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -1078,7 +1132,9 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="204"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
   </bookViews>
   <sheets>
     <sheet name="THouseCell" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="效率排序" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -75,18 +76,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Des</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +96,6 @@
   </si>
   <si>
     <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProduceGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -140,18 +125,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelUpCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>升级花费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "THouseCell" Package: "table" CSClassHeader: "[System.Serializable]"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,6 +146,63 @@
   </si>
   <si>
     <t>厨房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>*100+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区域等级</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期产生金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升至下一级所需金币，满级后下一级为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效率（金币/时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单周期生产时间（单位秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级效率（升级金币/单周期金币）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,85 +632,95 @@
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.296875" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -687,19 +731,27 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <f>D5/E5</f>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f>F5/D5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -710,19 +762,27 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H24" si="0">D6/E6</f>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I24" si="1">F6/D6</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -733,19 +793,27 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>2250</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -756,19 +824,27 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>400</v>
+        <v>910</v>
       </c>
       <c r="E8">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F8">
-        <v>400</v>
+        <v>6370</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -779,19 +855,27 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>1530</v>
       </c>
       <c r="E9">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -802,19 +886,27 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -825,19 +917,27 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E11">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F11">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -848,19 +948,27 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>550</v>
       </c>
       <c r="E12">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>30</v>
+        <v>2750</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -871,19 +979,27 @@
         <v>5</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>1050</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="F13">
-        <v>40</v>
+        <v>7350</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -894,19 +1010,27 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>1710</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3001</v>
       </c>
@@ -917,19 +1041,27 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3002</v>
       </c>
@@ -940,19 +1072,27 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>280</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>2000</v>
+        <v>840</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3003</v>
       </c>
@@ -963,19 +1103,27 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>3000</v>
+        <v>660</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3004</v>
       </c>
@@ -986,19 +1134,27 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F18">
-        <v>4000</v>
+        <v>8400</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3005</v>
       </c>
@@ -1009,19 +1165,27 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>5000</v>
+        <v>1900</v>
       </c>
       <c r="E19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4001</v>
       </c>
@@ -1032,19 +1196,27 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4002</v>
       </c>
@@ -1055,19 +1227,27 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>2000</v>
+        <v>360</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F21">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4003</v>
       </c>
@@ -1078,19 +1258,27 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>3000</v>
+        <v>780</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="F22">
-        <v>3000</v>
+        <v>3900</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4004</v>
       </c>
@@ -1101,19 +1289,27 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>4000</v>
+        <v>1360</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F23">
-        <v>4000</v>
+        <v>9520</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4005</v>
       </c>
@@ -1124,16 +1320,24 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>5000</v>
+        <v>2100</v>
       </c>
       <c r="E24">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1369,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1229,4 +1433,115 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>450</v>
+      </c>
+      <c r="C1">
+        <v>2250</v>
+      </c>
+      <c r="D1">
+        <v>6370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>630</v>
+      </c>
+      <c r="C2">
+        <v>2750</v>
+      </c>
+      <c r="D2">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>840</v>
+      </c>
+      <c r="C3">
+        <v>3300</v>
+      </c>
+      <c r="D3">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>1080</v>
+      </c>
+      <c r="C4">
+        <v>3900</v>
+      </c>
+      <c r="D4">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>SUM(A1:A4)</f>
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:D5" si="0">SUM(B1:B4)</f>
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>12200</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>31640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <f>A5*2</f>
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:D6" si="1">B5*2</f>
+        <v>6000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>24400</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>63280</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A21">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
@@ -11,12 +11,12 @@
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="效率排序" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -205,12 +205,16 @@
     <t>升级效率（升级金币/单周期金币）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -619,15 +623,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.296875" style="1" customWidth="1"/>
@@ -640,7 +644,7 @@
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -663,7 +667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -686,12 +690,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -720,7 +727,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -751,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -782,7 +789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -813,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -844,7 +851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -875,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -906,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -937,7 +944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -968,7 +975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1030,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3001</v>
       </c>
@@ -1061,7 +1068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3002</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3003</v>
       </c>
@@ -1123,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3004</v>
       </c>
@@ -1154,7 +1161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3005</v>
       </c>
@@ -1185,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>4001</v>
       </c>
@@ -1216,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4002</v>
       </c>
@@ -1247,7 +1254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>4003</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>4004</v>
       </c>
@@ -1309,7 +1316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>4005</v>
       </c>
@@ -1352,27 +1359,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1398,7 +1405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1436,16 +1443,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>10</v>
       </c>
@@ -1459,7 +1466,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>30</v>
       </c>
@@ -1473,7 +1480,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>60</v>
       </c>
@@ -1487,7 +1494,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1501,7 +1508,7 @@
         <v>9520</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <f>SUM(A1:A4)</f>
         <v>200</v>
@@ -1519,7 +1526,7 @@
         <v>31640</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <f>A5*2</f>
         <v>400</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -203,6 +203,24 @@
   </si>
   <si>
     <t>升级效率（升级金币/单周期金币）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ips1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tips2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +642,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,6 +680,12 @@
       <c r="G1" t="s">
         <v>19</v>
       </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -683,6 +707,12 @@
         <v>24</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
     </row>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367" activeTab="2"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
   </bookViews>
   <sheets>
     <sheet name="THouseCell" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
-    <sheet name="效率排序" sheetId="3" r:id="rId3"/>
+    <sheet name="#效率排序" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -231,12 +231,16 @@
     <t>Tips4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -645,15 +649,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
@@ -666,7 +670,7 @@
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -692,10 +696,10 @@
         <v>43</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -720,16 +724,14 @@
       <c r="H2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -758,7 +760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -789,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -820,7 +822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -851,7 +853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -882,7 +884,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -913,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2001</v>
       </c>
@@ -944,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2002</v>
       </c>
@@ -975,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -1006,7 +1008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -1037,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -1068,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>3001</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>3002</v>
       </c>
@@ -1130,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>3003</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>3004</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>3005</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>4001</v>
       </c>
@@ -1254,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>4002</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>4003</v>
       </c>
@@ -1316,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>4004</v>
       </c>
@@ -1347,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>4005</v>
       </c>
@@ -1390,27 +1392,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1436,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1474,19 +1476,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384">
       <c r="A1" s="5" t="s">
         <v>43</v>
       </c>
@@ -17880,7 +17882,7 @@
       <c r="XFC1" s="5"/>
       <c r="XFD1" s="5"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -34274,7 +34276,7 @@
       <c r="XFC2" s="5"/>
       <c r="XFD2" s="5"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16384">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -50658,7 +50660,7 @@
       <c r="XFC3" s="5"/>
       <c r="XFD3" s="5"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16384">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
@@ -67044,7 +67046,7 @@
       <c r="XFC4" s="5"/>
       <c r="XFD4" s="5"/>
     </row>
-    <row r="5" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384">
       <c r="A5">
         <v>10</v>
       </c>
@@ -67058,7 +67060,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16384">
       <c r="A6">
         <v>30</v>
       </c>
@@ -67072,7 +67074,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16384">
       <c r="A7">
         <v>60</v>
       </c>
@@ -67086,7 +67088,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384">
       <c r="A8">
         <v>100</v>
       </c>
@@ -67100,7 +67102,7 @@
         <v>9520</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16384">
       <c r="A9">
         <f>SUM(A5:A8)</f>
         <v>200</v>
@@ -67118,7 +67120,7 @@
         <v>31640</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384">
       <c r="A10">
         <f>A9*2</f>
         <v>400</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367" activeTab="1"/>
+    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
   </bookViews>
   <sheets>
     <sheet name="THouseCell" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -205,21 +205,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ips1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tips2</t>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,8 +626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -683,7 +669,7 @@
         <v>43</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -708,12 +694,8 @@
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -766,7 +748,8 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <f>I5*D5</f>
+        <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>31</v>
@@ -776,8 +759,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <f>F5/D5</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -797,18 +779,18 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>450</v>
+        <f t="shared" ref="F6:F24" si="0">I6*D6</f>
+        <v>2250</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H24" si="0">D6/E6</f>
+        <f t="shared" ref="H6:H24" si="1">D6/E6</f>
         <v>5</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I24" si="1">F6/D6</f>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -828,18 +810,18 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2250</v>
+        <f t="shared" si="0"/>
+        <v>11250</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -859,18 +841,18 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <v>6370</v>
+        <f t="shared" si="0"/>
+        <v>31850</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -890,17 +872,17 @@
         <v>90</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -921,18 +903,18 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <v>30</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -952,18 +934,18 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <v>630</v>
+        <f t="shared" si="0"/>
+        <v>3150</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -983,18 +965,18 @@
         <v>55</v>
       </c>
       <c r="F12">
-        <v>2750</v>
+        <f t="shared" si="0"/>
+        <v>13750</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1014,18 +996,18 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <v>7350</v>
+        <f t="shared" si="0"/>
+        <v>36750</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1045,17 +1027,17 @@
         <v>95</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1076,18 +1058,18 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1107,18 +1089,18 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>840</v>
+        <f t="shared" si="0"/>
+        <v>4200</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1138,18 +1120,18 @@
         <v>60</v>
       </c>
       <c r="F17">
-        <v>3300</v>
+        <f t="shared" si="0"/>
+        <v>16500</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1169,18 +1151,18 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <v>8400</v>
+        <f t="shared" si="0"/>
+        <v>42000</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1200,17 +1182,17 @@
         <v>100</v>
       </c>
       <c r="F19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1231,18 +1213,18 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>500</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1262,18 +1244,18 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <v>1080</v>
+        <f t="shared" si="0"/>
+        <v>5400</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1293,18 +1275,18 @@
         <v>65</v>
       </c>
       <c r="F22">
-        <v>3900</v>
+        <f t="shared" si="0"/>
+        <v>19500</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1324,18 +1306,18 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <v>9520</v>
+        <f t="shared" si="0"/>
+        <v>47600</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1355,17 +1337,17 @@
         <v>105</v>
       </c>
       <c r="F24">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1385,7 +1367,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -626,8 +626,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -779,18 +779,18 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F24" si="0">I6*D6</f>
-        <v>2250</v>
+        <f>I6*D6</f>
+        <v>1500</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H24" si="1">D6/E6</f>
+        <f>D6/E6</f>
         <v>5</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -810,18 +810,18 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>11250</v>
+        <f>I7*D7</f>
+        <v>6750</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f>D7/E7</f>
         <v>9</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -841,18 +841,18 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>31850</v>
+        <f>I8*D8</f>
+        <v>18200</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f>D8/E8</f>
         <v>13</v>
       </c>
       <c r="I8">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -872,14 +872,14 @@
         <v>90</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>I9*D9</f>
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f>D9/E9</f>
         <v>17</v>
       </c>
       <c r="I9">
@@ -903,14 +903,14 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f>I10*D10</f>
         <v>150</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f>D10/E10</f>
         <v>2</v>
       </c>
       <c r="I10">
@@ -934,18 +934,18 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>3150</v>
+        <f>I11*D11</f>
+        <v>2100</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f>D11/E11</f>
         <v>6</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -965,18 +965,18 @@
         <v>55</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>13750</v>
+        <f>I12*D12</f>
+        <v>8250</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f>D12/E12</f>
         <v>10</v>
       </c>
       <c r="I12">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -996,18 +996,18 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>36750</v>
+        <f>I13*D13</f>
+        <v>21000</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f>D13/E13</f>
         <v>14</v>
       </c>
       <c r="I13">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1027,14 +1027,14 @@
         <v>95</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f>I14*D14</f>
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f>D14/E14</f>
         <v>18</v>
       </c>
       <c r="I14">
@@ -1058,14 +1058,14 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f>I15*D15</f>
         <v>300</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f>D15/E15</f>
         <v>3</v>
       </c>
       <c r="I15">
@@ -1089,18 +1089,18 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>4200</v>
+        <f>I16*D16</f>
+        <v>2800</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f>D16/E16</f>
         <v>7</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1120,18 +1120,18 @@
         <v>60</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>16500</v>
+        <f>I17*D17</f>
+        <v>9900</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f>D17/E17</f>
         <v>11</v>
       </c>
       <c r="I17">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1151,18 +1151,18 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>42000</v>
+        <f>I18*D18</f>
+        <v>24000</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f>D18/E18</f>
         <v>15</v>
       </c>
       <c r="I18">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1182,14 +1182,14 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f>I19*D19</f>
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f>D19/E19</f>
         <v>19</v>
       </c>
       <c r="I19">
@@ -1213,14 +1213,14 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f>I20*D20</f>
         <v>500</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f>D20/E20</f>
         <v>4</v>
       </c>
       <c r="I20">
@@ -1244,18 +1244,18 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>5400</v>
+        <f>I21*D21</f>
+        <v>3600</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f>D21/E21</f>
         <v>8</v>
       </c>
       <c r="I21">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1275,18 +1275,18 @@
         <v>65</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>19500</v>
+        <f>I22*D22</f>
+        <v>11700</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f>D22/E22</f>
         <v>12</v>
       </c>
       <c r="I22">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1306,18 +1306,18 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>47600</v>
+        <f>I23*D23</f>
+        <v>27200</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H23">
-        <f t="shared" si="1"/>
+        <f>D23/E23</f>
         <v>16</v>
       </c>
       <c r="I23">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1337,14 +1337,14 @@
         <v>105</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f>I24*D24</f>
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f>D24/E24</f>
         <v>20</v>
       </c>
       <c r="I24">
@@ -1368,7 +1368,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>效率（金币/时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单周期生产时间（单位秒）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +202,14 @@
   </si>
   <si>
     <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IncomePerSecond</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -639,7 +643,7 @@
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.296875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="8" max="8" width="16.69921875" customWidth="1"/>
     <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -666,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -694,7 +698,9 @@
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -716,7 +722,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>38</v>
@@ -725,10 +731,10 @@
         <v>39</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -748,14 +754,14 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <f>I5*D5</f>
+        <f t="shared" ref="F5:F24" si="0">I5*D5</f>
         <v>50</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H5">
-        <f>D5/E5</f>
+        <f t="shared" ref="H5:H24" si="1">D5/E5</f>
         <v>1</v>
       </c>
       <c r="I5">
@@ -779,14 +785,14 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <f>I6*D6</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H6">
-        <f>D6/E6</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I6">
@@ -810,14 +816,14 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <f>I7*D7</f>
+        <f t="shared" si="0"/>
         <v>6750</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H7">
-        <f>D7/E7</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I7">
@@ -841,14 +847,14 @@
         <v>70</v>
       </c>
       <c r="F8">
-        <f>I8*D8</f>
+        <f t="shared" si="0"/>
         <v>18200</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H8">
-        <f>D8/E8</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I8">
@@ -872,14 +878,14 @@
         <v>90</v>
       </c>
       <c r="F9">
-        <f>I9*D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9">
-        <f>D9/E9</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I9">
@@ -903,14 +909,14 @@
         <v>15</v>
       </c>
       <c r="F10">
-        <f>I10*D10</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H10">
-        <f>D10/E10</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I10">
@@ -934,14 +940,14 @@
         <v>35</v>
       </c>
       <c r="F11">
-        <f>I11*D11</f>
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H11">
-        <f>D11/E11</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I11">
@@ -965,14 +971,14 @@
         <v>55</v>
       </c>
       <c r="F12">
-        <f>I12*D12</f>
+        <f t="shared" si="0"/>
         <v>8250</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H12">
-        <f>D12/E12</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I12">
@@ -996,14 +1002,14 @@
         <v>75</v>
       </c>
       <c r="F13">
-        <f>I13*D13</f>
+        <f t="shared" si="0"/>
         <v>21000</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H13">
-        <f>D13/E13</f>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I13">
@@ -1027,14 +1033,14 @@
         <v>95</v>
       </c>
       <c r="F14">
-        <f>I14*D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H14">
-        <f>D14/E14</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I14">
@@ -1058,14 +1064,14 @@
         <v>20</v>
       </c>
       <c r="F15">
-        <f>I15*D15</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H15">
-        <f>D15/E15</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I15">
@@ -1089,14 +1095,14 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <f>I16*D16</f>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H16">
-        <f>D16/E16</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I16">
@@ -1120,14 +1126,14 @@
         <v>60</v>
       </c>
       <c r="F17">
-        <f>I17*D17</f>
+        <f t="shared" si="0"/>
         <v>9900</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H17">
-        <f>D17/E17</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I17">
@@ -1151,14 +1157,14 @@
         <v>80</v>
       </c>
       <c r="F18">
-        <f>I18*D18</f>
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H18">
-        <f>D18/E18</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I18">
@@ -1182,14 +1188,14 @@
         <v>100</v>
       </c>
       <c r="F19">
-        <f>I19*D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H19">
-        <f>D19/E19</f>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I19">
@@ -1213,14 +1219,14 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <f>I20*D20</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H20">
-        <f>D20/E20</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I20">
@@ -1244,14 +1250,14 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <f>I21*D21</f>
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H21">
-        <f>D21/E21</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I21">
@@ -1275,14 +1281,14 @@
         <v>65</v>
       </c>
       <c r="F22">
-        <f>I22*D22</f>
+        <f t="shared" si="0"/>
         <v>11700</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H22">
-        <f>D22/E22</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I22">
@@ -1306,14 +1312,14 @@
         <v>85</v>
       </c>
       <c r="F23">
-        <f>I23*D23</f>
+        <f t="shared" si="0"/>
         <v>27200</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H23">
-        <f>D23/E23</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I23">
@@ -1337,14 +1343,14 @@
         <v>105</v>
       </c>
       <c r="F24">
-        <f>I24*D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>34</v>
       </c>
       <c r="H24">
-        <f>D24/E24</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I24">

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -240,7 +240,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +251,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -271,7 +295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +309,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,8 +678,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -738,622 +786,622 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="13">
         <v>1001</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="13">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13">
+        <f>H5*E5</f>
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="13">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="13">
         <f t="shared" ref="F5:F24" si="0">I5*D5</f>
         <v>50</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H24" si="1">D5/E5</f>
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="13">
         <v>1002</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="13">
+        <v>5</v>
+      </c>
+      <c r="D6" s="13">
+        <f t="shared" ref="D6:D24" si="1">H6*E6</f>
         <v>150</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="13">
         <v>30</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I6">
+      <c r="H6" s="13">
+        <v>5</v>
+      </c>
+      <c r="I6" s="13">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="13">
         <v>1003</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="13">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="13">
+        <v>5</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="13">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>6750</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
+      <c r="H7" s="13">
         <v>9</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="13">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="13">
         <v>1004</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>910</v>
-      </c>
-      <c r="E8">
-        <v>70</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>18200</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="1"/>
+        <v>1170</v>
+      </c>
+      <c r="E8" s="13">
+        <v>90</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>23400</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="1"/>
+      <c r="H8" s="13">
         <v>13</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="13">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="13">
         <v>1005</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="13">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1530</v>
-      </c>
-      <c r="E9">
-        <v>90</v>
-      </c>
-      <c r="F9">
+      <c r="C9" s="13">
+        <v>5</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="1"/>
+        <v>3060</v>
+      </c>
+      <c r="E9" s="13">
+        <v>180</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
+      <c r="H9" s="13">
         <v>17</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="9">
         <v>2001</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="9">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="9">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="1"/>
+      <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="9">
         <v>2002</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="9">
         <v>35</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="9">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
+      <c r="H11" s="9">
         <v>6</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="9">
         <v>2003</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>5</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="9">
         <v>55</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="9">
         <f t="shared" si="0"/>
         <v>8250</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
+      <c r="H12" s="9">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="9">
         <v>2004</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>1050</v>
-      </c>
-      <c r="E13">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>21000</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="E13" s="9">
+        <v>100</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
+      <c r="H13" s="9">
         <v>14</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="9">
         <v>2005</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="9">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-      <c r="D14">
-        <v>1710</v>
-      </c>
-      <c r="E14">
-        <v>95</v>
-      </c>
-      <c r="F14">
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="1"/>
+        <v>3420</v>
+      </c>
+      <c r="E14" s="9">
+        <v>190</v>
+      </c>
+      <c r="F14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
+      <c r="H14" s="9">
         <v>18</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="7">
         <v>3001</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
+      <c r="H15" s="7">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="7">
         <v>3002</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="7">
+        <v>5</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="7">
         <v>40</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>2800</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
+      <c r="H16" s="7">
         <v>7</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="7">
         <v>3003</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>3</v>
       </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="7">
+        <v>5</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>60</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>9900</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
+      <c r="H17" s="7">
         <v>11</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>3004</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>3</v>
       </c>
-      <c r="C18">
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <v>1200</v>
-      </c>
-      <c r="E18">
-        <v>80</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>24000</v>
-      </c>
-      <c r="G18" s="6" t="s">
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>1650</v>
+      </c>
+      <c r="E18" s="7">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>33000</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
+      <c r="H18" s="7">
         <v>15</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>3005</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19">
-        <v>5</v>
-      </c>
-      <c r="D19">
-        <v>1900</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>3800</v>
+      </c>
+      <c r="E19" s="7">
+        <v>200</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="7">
+        <v>19</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>4001</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="11">
+        <v>5</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="E20" s="11">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="11">
+        <v>4</v>
+      </c>
+      <c r="I20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>4002</v>
+      </c>
+      <c r="B21" s="11">
+        <v>4</v>
+      </c>
+      <c r="C21" s="11">
+        <v>5</v>
+      </c>
+      <c r="D21" s="11">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="E21" s="11">
+        <v>45</v>
+      </c>
+      <c r="F21" s="11">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="11">
+        <v>8</v>
+      </c>
+      <c r="I21" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>4003</v>
+      </c>
+      <c r="B22" s="11">
+        <v>4</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="E22" s="11">
+        <v>65</v>
+      </c>
+      <c r="F22" s="11">
+        <f t="shared" si="0"/>
+        <v>11700</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="11">
+        <v>12</v>
+      </c>
+      <c r="I22" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>4004</v>
+      </c>
+      <c r="B23" s="11">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11">
+        <v>5</v>
+      </c>
+      <c r="D23" s="11">
+        <f t="shared" si="1"/>
+        <v>1920</v>
+      </c>
+      <c r="E23" s="11">
+        <v>120</v>
+      </c>
+      <c r="F23" s="11">
+        <f t="shared" si="0"/>
+        <v>38400</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="11">
+        <v>16</v>
+      </c>
+      <c r="I23" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>4005</v>
+      </c>
+      <c r="B24" s="11">
+        <v>4</v>
+      </c>
+      <c r="C24" s="11">
+        <v>5</v>
+      </c>
+      <c r="D24" s="11">
+        <f t="shared" si="1"/>
+        <v>4200</v>
+      </c>
+      <c r="E24" s="11">
+        <v>210</v>
+      </c>
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4001</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-      <c r="D20">
-        <v>100</v>
-      </c>
-      <c r="E20">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="G24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>4002</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-      <c r="D21">
-        <v>360</v>
-      </c>
-      <c r="E21">
-        <v>45</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>4003</v>
-      </c>
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-      <c r="D22">
-        <v>780</v>
-      </c>
-      <c r="E22">
-        <v>65</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="I22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4004</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>1360</v>
-      </c>
-      <c r="E23">
-        <v>85</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>27200</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="H24" s="11">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4005</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2100</v>
-      </c>
-      <c r="E24">
-        <v>105</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="I24">
+      <c r="I24" s="11">
         <v>0</v>
       </c>
     </row>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>IncomePerSecond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnlockGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁花费金币</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +684,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,11 +699,11 @@
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.296875" customWidth="1"/>
-    <col min="8" max="8" width="16.69921875" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="8" max="9" width="16.69921875" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -721,10 +729,13 @@
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -749,14 +760,17 @@
       <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -782,10 +796,13 @@
         <v>43</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1001</v>
       </c>
@@ -803,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F24" si="0">I5*D5</f>
+        <f t="shared" ref="F5:F24" si="0">J5*D5</f>
         <v>50</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -813,10 +830,13 @@
         <v>1</v>
       </c>
       <c r="I5" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1002</v>
       </c>
@@ -844,10 +864,13 @@
         <v>5</v>
       </c>
       <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1003</v>
       </c>
@@ -875,10 +898,13 @@
         <v>9</v>
       </c>
       <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1004</v>
       </c>
@@ -906,10 +932,13 @@
         <v>13</v>
       </c>
       <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1005</v>
       </c>
@@ -939,8 +968,11 @@
       <c r="I9" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>2001</v>
       </c>
@@ -968,10 +1000,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>2002</v>
       </c>
@@ -999,10 +1034,13 @@
         <v>6</v>
       </c>
       <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>2003</v>
       </c>
@@ -1030,10 +1068,13 @@
         <v>10</v>
       </c>
       <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2004</v>
       </c>
@@ -1061,10 +1102,13 @@
         <v>14</v>
       </c>
       <c r="I13" s="9">
+        <v>0</v>
+      </c>
+      <c r="J13" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2005</v>
       </c>
@@ -1094,8 +1138,11 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>3001</v>
       </c>
@@ -1123,10 +1170,13 @@
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>3002</v>
       </c>
@@ -1154,10 +1204,13 @@
         <v>7</v>
       </c>
       <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>3003</v>
       </c>
@@ -1185,10 +1238,13 @@
         <v>11</v>
       </c>
       <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>3004</v>
       </c>
@@ -1216,10 +1272,13 @@
         <v>15</v>
       </c>
       <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>3005</v>
       </c>
@@ -1249,8 +1308,11 @@
       <c r="I19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>4001</v>
       </c>
@@ -1278,10 +1340,13 @@
         <v>4</v>
       </c>
       <c r="I20" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="J20" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>4002</v>
       </c>
@@ -1309,10 +1374,13 @@
         <v>8</v>
       </c>
       <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>4003</v>
       </c>
@@ -1340,10 +1408,13 @@
         <v>12</v>
       </c>
       <c r="I22" s="11">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>4004</v>
       </c>
@@ -1371,10 +1442,13 @@
         <v>16</v>
       </c>
       <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>4005</v>
       </c>
@@ -1402,6 +1476,9 @@
         <v>20</v>
       </c>
       <c r="I24" s="11">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
         <v>0</v>
       </c>
     </row>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -248,7 +248,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +285,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -303,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +355,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,10 +715,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="13">
         <f>H5*E5</f>
@@ -820,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F24" si="0">J5*D5</f>
+        <f t="shared" ref="F5:F60" si="0">J5*D5</f>
         <v>50</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -844,24 +875,24 @@
         <v>1</v>
       </c>
       <c r="C6" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D24" si="1">H6*E6</f>
-        <v>150</v>
+        <f t="shared" ref="D6:D60" si="1">H6*E6</f>
+        <v>360</v>
       </c>
       <c r="E6" s="13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>3600</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -878,24 +909,24 @@
         <v>1</v>
       </c>
       <c r="C7" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>1200</v>
       </c>
       <c r="E7" s="13">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>6750</v>
+        <v>18000</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I7" s="13">
         <v>0</v>
@@ -912,24 +943,24 @@
         <v>1</v>
       </c>
       <c r="C8" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>1170</v>
+        <v>2530</v>
       </c>
       <c r="E8" s="13">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>23400</v>
+        <v>50600</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="13">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -946,539 +977,1715 @@
         <v>1</v>
       </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>3060</v>
+        <v>4350</v>
       </c>
       <c r="E9" s="13">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87000</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="13">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
       </c>
       <c r="J9" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9">
-        <v>2001</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="E10" s="9">
-        <v>15</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="9">
-        <v>2</v>
-      </c>
-      <c r="I10" s="9">
-        <v>150</v>
-      </c>
-      <c r="J10" s="9">
-        <v>5</v>
+      <c r="A10" s="13">
+        <v>1006</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
+        <v>8</v>
+      </c>
+      <c r="D10" s="13">
+        <f>H10*E10</f>
+        <v>6660</v>
+      </c>
+      <c r="E10" s="13">
+        <v>185</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>133200</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="13">
+        <v>36</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9">
-        <v>2002</v>
-      </c>
-      <c r="B11" s="9">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="E11" s="9">
-        <v>35</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9">
-        <v>6</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>10</v>
+      <c r="A11" s="13">
+        <v>1007</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>8</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="1"/>
+        <v>9460</v>
+      </c>
+      <c r="E11" s="13">
+        <v>220</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>189200</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="13">
+        <v>43</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="9">
-        <v>2</v>
-      </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="9">
-        <f t="shared" si="1"/>
-        <v>550</v>
-      </c>
-      <c r="E12" s="9">
-        <v>55</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>8250</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="9">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>15</v>
+      <c r="A12" s="13">
+        <v>1008</v>
+      </c>
+      <c r="B12" s="13">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="1"/>
+        <v>12750</v>
+      </c>
+      <c r="E12" s="13">
+        <v>255</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="13">
+        <v>50</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B13" s="9">
         <v>2</v>
       </c>
       <c r="C13" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
-        <v>1400</v>
+        <v>30</v>
       </c>
       <c r="E13" s="9">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>28000</v>
+        <v>150</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="9">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I13" s="9">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="J13" s="9">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B14" s="9">
         <v>2</v>
       </c>
       <c r="C14" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="1"/>
-        <v>3420</v>
+        <v>450</v>
       </c>
       <c r="E14" s="9">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="9">
+        <v>9</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>2003</v>
+      </c>
+      <c r="B15" s="9">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="1"/>
+        <v>1360</v>
+      </c>
+      <c r="E15" s="9">
+        <v>85</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>20400</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="9">
+        <v>16</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>2004</v>
+      </c>
+      <c r="B16" s="9">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>8</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="1"/>
+        <v>2760</v>
+      </c>
+      <c r="E16" s="9">
+        <v>120</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>55200</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="9">
+        <v>23</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="9">
+        <v>2005</v>
+      </c>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
+        <v>4650</v>
+      </c>
+      <c r="E17" s="9">
+        <v>155</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="9">
+        <v>30</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="9">
+        <v>2006</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="1"/>
+        <v>7030</v>
+      </c>
+      <c r="E18" s="9">
+        <v>190</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>140600</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="9">
+        <v>37</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="9">
+        <v>2007</v>
+      </c>
+      <c r="B19" s="9">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+      <c r="E19" s="9">
+        <v>225</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>198000</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="9">
+        <v>44</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="9">
+        <v>2008</v>
+      </c>
+      <c r="B20" s="9">
+        <v>2</v>
+      </c>
+      <c r="C20" s="9">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="1"/>
+        <v>13260</v>
+      </c>
+      <c r="E20" s="9">
+        <v>260</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="9">
+        <v>51</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7">
+        <v>3001</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E21" s="7">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="7">
+        <v>3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>300</v>
+      </c>
+      <c r="J21" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>3002</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7">
+        <v>8</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="1"/>
+        <v>550</v>
+      </c>
+      <c r="E22" s="7">
+        <v>55</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7">
+        <v>3003</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="1"/>
+        <v>1530</v>
+      </c>
+      <c r="E23" s="7">
+        <v>90</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>22950</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="7">
+        <v>17</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7">
+        <v>3004</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="E24" s="7">
+        <v>125</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>60000</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="7">
+        <v>24</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>3005</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="1"/>
+        <v>4960</v>
+      </c>
+      <c r="E25" s="7">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>99200</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="7">
+        <v>31</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7">
+        <v>3006</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
+        <v>8</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="1"/>
+        <v>7410</v>
+      </c>
+      <c r="E26" s="7">
+        <v>195</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>148200</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="7">
+        <v>38</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="7">
+        <v>3007</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>8</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="1"/>
+        <v>10350</v>
+      </c>
+      <c r="E27" s="7">
+        <v>230</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>207000</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="7">
+        <v>45</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="7">
+        <v>3008</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="7">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="1"/>
+        <v>13780</v>
+      </c>
+      <c r="E28" s="7">
+        <v>265</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="7">
+        <v>52</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>4001</v>
+      </c>
+      <c r="B29" s="11">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>8</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="11">
+        <v>25</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4</v>
+      </c>
+      <c r="I29" s="11">
+        <v>500</v>
+      </c>
+      <c r="J29" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>4002</v>
+      </c>
+      <c r="B30" s="11">
+        <v>4</v>
+      </c>
+      <c r="C30" s="11">
+        <v>8</v>
+      </c>
+      <c r="D30" s="11">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="E30" s="11">
+        <v>60</v>
+      </c>
+      <c r="F30" s="11">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="11">
+        <v>11</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>4003</v>
+      </c>
+      <c r="B31" s="11">
+        <v>4</v>
+      </c>
+      <c r="C31" s="11">
+        <v>8</v>
+      </c>
+      <c r="D31" s="11">
+        <f t="shared" si="1"/>
+        <v>1710</v>
+      </c>
+      <c r="E31" s="11">
+        <v>95</v>
+      </c>
+      <c r="F31" s="11">
+        <f t="shared" si="0"/>
+        <v>25650</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="11">
         <v>18</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7">
-        <v>3001</v>
-      </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
+      <c r="I31" s="11">
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>4004</v>
+      </c>
+      <c r="B32" s="11">
+        <v>4</v>
+      </c>
+      <c r="C32" s="11">
+        <v>8</v>
+      </c>
+      <c r="D32" s="11">
+        <f t="shared" si="1"/>
+        <v>3250</v>
+      </c>
+      <c r="E32" s="11">
+        <v>130</v>
+      </c>
+      <c r="F32" s="11">
+        <f t="shared" si="0"/>
+        <v>65000</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="11">
+        <v>25</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>4005</v>
+      </c>
+      <c r="B33" s="11">
+        <v>4</v>
+      </c>
+      <c r="C33" s="11">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11">
+        <f t="shared" si="1"/>
+        <v>5280</v>
+      </c>
+      <c r="E33" s="11">
+        <v>165</v>
+      </c>
+      <c r="F33" s="11">
+        <f t="shared" si="0"/>
+        <v>105600</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" s="11">
+        <v>32</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>4006</v>
+      </c>
+      <c r="B34" s="11">
+        <v>4</v>
+      </c>
+      <c r="C34" s="15">
+        <v>8</v>
+      </c>
+      <c r="D34" s="11">
+        <f t="shared" si="1"/>
+        <v>7800</v>
+      </c>
+      <c r="E34" s="11">
+        <v>200</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="0"/>
+        <v>156000</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="11">
+        <v>39</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>4007</v>
+      </c>
+      <c r="B35" s="11">
+        <v>4</v>
+      </c>
+      <c r="C35" s="15">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11">
+        <f t="shared" si="1"/>
+        <v>10810</v>
+      </c>
+      <c r="E35" s="11">
+        <v>235</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>216200</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="11">
+        <v>46</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>4008</v>
+      </c>
+      <c r="B36" s="11">
+        <v>4</v>
+      </c>
+      <c r="C36" s="15">
+        <v>8</v>
+      </c>
+      <c r="D36" s="11">
+        <f t="shared" si="1"/>
+        <v>14310</v>
+      </c>
+      <c r="E36" s="11">
+        <v>270</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="11">
+        <v>53</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="16">
+        <v>5001</v>
+      </c>
+      <c r="B37" s="17">
         <v>5</v>
       </c>
-      <c r="D15" s="7">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="E15" s="7">
-        <v>20</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="C37" s="17">
+        <v>8</v>
+      </c>
+      <c r="D37" s="18">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="E37" s="17">
+        <v>30</v>
+      </c>
+      <c r="F37" s="18">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
+        <v>5</v>
+      </c>
+      <c r="I37" s="18">
+        <v>750</v>
+      </c>
+      <c r="J37" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="16">
+        <v>5002</v>
+      </c>
+      <c r="B38" s="17">
+        <v>5</v>
+      </c>
+      <c r="C38" s="17">
+        <v>8</v>
+      </c>
+      <c r="D38" s="18">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="E38" s="17">
+        <v>65</v>
+      </c>
+      <c r="F38" s="18">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18">
+        <v>12</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="16">
+        <v>5003</v>
+      </c>
+      <c r="B39" s="17">
+        <v>5</v>
+      </c>
+      <c r="C39" s="17">
+        <v>8</v>
+      </c>
+      <c r="D39" s="18">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="E39" s="17">
+        <v>100</v>
+      </c>
+      <c r="F39" s="18">
+        <f t="shared" si="0"/>
+        <v>28500</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18">
+        <v>19</v>
+      </c>
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="16">
+        <v>5004</v>
+      </c>
+      <c r="B40" s="17">
+        <v>5</v>
+      </c>
+      <c r="C40" s="17">
+        <v>8</v>
+      </c>
+      <c r="D40" s="18">
+        <f t="shared" si="1"/>
+        <v>3510</v>
+      </c>
+      <c r="E40" s="17">
+        <v>135</v>
+      </c>
+      <c r="F40" s="18">
+        <f t="shared" si="0"/>
+        <v>70200</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18">
+        <v>26</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="16">
+        <v>5005</v>
+      </c>
+      <c r="B41" s="17">
+        <v>5</v>
+      </c>
+      <c r="C41" s="17">
+        <v>8</v>
+      </c>
+      <c r="D41" s="18">
+        <f t="shared" si="1"/>
+        <v>5610</v>
+      </c>
+      <c r="E41" s="17">
+        <v>170</v>
+      </c>
+      <c r="F41" s="18">
+        <f t="shared" si="0"/>
+        <v>112200</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18">
         <v>33</v>
       </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7">
-        <v>300</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="I41" s="18">
+        <v>0</v>
+      </c>
+      <c r="J41" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="16">
+        <v>5006</v>
+      </c>
+      <c r="B42" s="17">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7">
-        <v>3002</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
-      </c>
-      <c r="C16" s="7">
+      <c r="C42" s="17">
+        <v>8</v>
+      </c>
+      <c r="D42" s="18">
+        <f t="shared" si="1"/>
+        <v>8200</v>
+      </c>
+      <c r="E42" s="17">
+        <v>205</v>
+      </c>
+      <c r="F42" s="17">
+        <f t="shared" si="0"/>
+        <v>164000</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18">
+        <v>40</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="16">
+        <v>5007</v>
+      </c>
+      <c r="B43" s="17">
         <v>5</v>
       </c>
-      <c r="D16" s="7">
-        <f t="shared" si="1"/>
+      <c r="C43" s="17">
+        <v>8</v>
+      </c>
+      <c r="D43" s="18">
+        <f t="shared" si="1"/>
+        <v>11280</v>
+      </c>
+      <c r="E43" s="17">
+        <v>240</v>
+      </c>
+      <c r="F43" s="17">
+        <f t="shared" si="0"/>
+        <v>225600</v>
+      </c>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18">
+        <v>47</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="16">
+        <v>5008</v>
+      </c>
+      <c r="B44" s="17">
+        <v>5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>8</v>
+      </c>
+      <c r="D44" s="18">
+        <f t="shared" si="1"/>
+        <v>14850</v>
+      </c>
+      <c r="E44" s="17">
+        <v>275</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18">
+        <v>54</v>
+      </c>
+      <c r="I44" s="18">
+        <v>0</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>6001</v>
+      </c>
+      <c r="B45" s="20">
+        <v>6</v>
+      </c>
+      <c r="C45" s="20">
+        <v>8</v>
+      </c>
+      <c r="D45" s="21">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="E45" s="20">
+        <v>35</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21">
+        <v>6</v>
+      </c>
+      <c r="I45" s="21">
+        <v>1050</v>
+      </c>
+      <c r="J45" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>6002</v>
+      </c>
+      <c r="B46" s="20">
+        <v>6</v>
+      </c>
+      <c r="C46" s="20">
+        <v>8</v>
+      </c>
+      <c r="D46" s="21">
+        <f t="shared" si="1"/>
+        <v>910</v>
+      </c>
+      <c r="E46" s="20">
+        <v>70</v>
+      </c>
+      <c r="F46" s="21">
+        <f t="shared" si="0"/>
+        <v>9100</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21">
+        <v>13</v>
+      </c>
+      <c r="I46" s="21">
+        <v>0</v>
+      </c>
+      <c r="J46" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>6003</v>
+      </c>
+      <c r="B47" s="20">
+        <v>6</v>
+      </c>
+      <c r="C47" s="20">
+        <v>8</v>
+      </c>
+      <c r="D47" s="21">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="E47" s="20">
+        <v>105</v>
+      </c>
+      <c r="F47" s="21">
+        <f t="shared" si="0"/>
+        <v>31500</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21">
+        <v>20</v>
+      </c>
+      <c r="I47" s="21">
+        <v>0</v>
+      </c>
+      <c r="J47" s="21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>6004</v>
+      </c>
+      <c r="B48" s="20">
+        <v>6</v>
+      </c>
+      <c r="C48" s="20">
+        <v>8</v>
+      </c>
+      <c r="D48" s="21">
+        <f t="shared" si="1"/>
+        <v>3780</v>
+      </c>
+      <c r="E48" s="20">
+        <v>140</v>
+      </c>
+      <c r="F48" s="21">
+        <f t="shared" si="0"/>
+        <v>75600</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21">
+        <v>27</v>
+      </c>
+      <c r="I48" s="21">
+        <v>0</v>
+      </c>
+      <c r="J48" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="19">
+        <v>6005</v>
+      </c>
+      <c r="B49" s="20">
+        <v>6</v>
+      </c>
+      <c r="C49" s="20">
+        <v>8</v>
+      </c>
+      <c r="D49" s="21">
+        <f t="shared" si="1"/>
+        <v>5950</v>
+      </c>
+      <c r="E49" s="20">
+        <v>175</v>
+      </c>
+      <c r="F49" s="21">
+        <f t="shared" si="0"/>
+        <v>119000</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21">
+        <v>34</v>
+      </c>
+      <c r="I49" s="21">
+        <v>0</v>
+      </c>
+      <c r="J49" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
+        <v>6006</v>
+      </c>
+      <c r="B50" s="20">
+        <v>6</v>
+      </c>
+      <c r="C50" s="20">
+        <v>8</v>
+      </c>
+      <c r="D50" s="21">
+        <f t="shared" si="1"/>
+        <v>8610</v>
+      </c>
+      <c r="E50" s="20">
+        <v>210</v>
+      </c>
+      <c r="F50" s="20">
+        <f t="shared" si="0"/>
+        <v>172200</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21">
+        <v>41</v>
+      </c>
+      <c r="I50" s="21">
+        <v>0</v>
+      </c>
+      <c r="J50" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="19">
+        <v>6007</v>
+      </c>
+      <c r="B51" s="20">
+        <v>6</v>
+      </c>
+      <c r="C51" s="20">
+        <v>8</v>
+      </c>
+      <c r="D51" s="21">
+        <f t="shared" si="1"/>
+        <v>11760</v>
+      </c>
+      <c r="E51" s="20">
+        <v>245</v>
+      </c>
+      <c r="F51" s="20">
+        <f t="shared" si="0"/>
+        <v>235200</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21">
+        <v>48</v>
+      </c>
+      <c r="I51" s="21">
+        <v>0</v>
+      </c>
+      <c r="J51" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
+        <v>6008</v>
+      </c>
+      <c r="B52" s="20">
+        <v>6</v>
+      </c>
+      <c r="C52" s="20">
+        <v>8</v>
+      </c>
+      <c r="D52" s="21">
+        <f t="shared" si="1"/>
+        <v>15400</v>
+      </c>
+      <c r="E52" s="20">
         <v>280</v>
       </c>
-      <c r="E16" s="7">
+      <c r="F52" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21">
+        <v>55</v>
+      </c>
+      <c r="I52" s="21">
+        <v>0</v>
+      </c>
+      <c r="J52" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
+        <v>7001</v>
+      </c>
+      <c r="B53" s="23">
+        <v>7</v>
+      </c>
+      <c r="C53" s="23">
+        <v>8</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="E53" s="23">
         <v>40</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>2800</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="F53" s="9">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9">
         <v>7</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I53" s="9">
+        <v>1400</v>
+      </c>
+      <c r="J53" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <v>7002</v>
+      </c>
+      <c r="B54" s="23">
+        <v>7</v>
+      </c>
+      <c r="C54" s="23">
+        <v>8</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="E54" s="23">
+        <v>75</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9">
+        <v>14</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="7">
-        <v>3003</v>
-      </c>
-      <c r="B17" s="7">
-        <v>3</v>
-      </c>
-      <c r="C17" s="7">
-        <v>5</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="1"/>
-        <v>660</v>
-      </c>
-      <c r="E17" s="7">
-        <v>60</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>9900</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="7">
-        <v>11</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
+        <v>7003</v>
+      </c>
+      <c r="B55" s="23">
+        <v>7</v>
+      </c>
+      <c r="C55" s="23">
+        <v>8</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="1"/>
+        <v>2310</v>
+      </c>
+      <c r="E55" s="23">
+        <v>110</v>
+      </c>
+      <c r="F55" s="9">
+        <f t="shared" si="0"/>
+        <v>34650</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9">
+        <v>21</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="7">
-        <v>3004</v>
-      </c>
-      <c r="B18" s="7">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>5</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="1"/>
-        <v>1650</v>
-      </c>
-      <c r="E18" s="7">
-        <v>110</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>33000</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="7">
-        <v>3005</v>
-      </c>
-      <c r="B19" s="7">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>5</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="1"/>
-        <v>3800</v>
-      </c>
-      <c r="E19" s="7">
-        <v>200</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>4001</v>
-      </c>
-      <c r="B20" s="11">
-        <v>4</v>
-      </c>
-      <c r="C20" s="11">
-        <v>5</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="E20" s="11">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="11">
-        <v>4</v>
-      </c>
-      <c r="I20" s="11">
-        <v>500</v>
-      </c>
-      <c r="J20" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>4002</v>
-      </c>
-      <c r="B21" s="11">
-        <v>4</v>
-      </c>
-      <c r="C21" s="11">
-        <v>5</v>
-      </c>
-      <c r="D21" s="11">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="E21" s="11">
-        <v>45</v>
-      </c>
-      <c r="F21" s="11">
-        <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="11">
-        <v>8</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>4003</v>
-      </c>
-      <c r="B22" s="11">
-        <v>4</v>
-      </c>
-      <c r="C22" s="11">
-        <v>5</v>
-      </c>
-      <c r="D22" s="11">
-        <f t="shared" si="1"/>
-        <v>780</v>
-      </c>
-      <c r="E22" s="11">
-        <v>65</v>
-      </c>
-      <c r="F22" s="11">
-        <f t="shared" si="0"/>
-        <v>11700</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="11">
-        <v>12</v>
-      </c>
-      <c r="I22" s="11">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
-        <v>4004</v>
-      </c>
-      <c r="B23" s="11">
-        <v>4</v>
-      </c>
-      <c r="C23" s="11">
-        <v>5</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" si="1"/>
-        <v>1920</v>
-      </c>
-      <c r="E23" s="11">
-        <v>120</v>
-      </c>
-      <c r="F23" s="11">
-        <f t="shared" si="0"/>
-        <v>38400</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="11">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
-        <v>4005</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4</v>
-      </c>
-      <c r="C24" s="11">
-        <v>5</v>
-      </c>
-      <c r="D24" s="11">
-        <f t="shared" si="1"/>
-        <v>4200</v>
-      </c>
-      <c r="E24" s="11">
-        <v>210</v>
-      </c>
-      <c r="F24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="11">
-        <v>20</v>
-      </c>
-      <c r="I24" s="11">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <v>7004</v>
+      </c>
+      <c r="B56" s="23">
+        <v>7</v>
+      </c>
+      <c r="C56" s="23">
+        <v>8</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="1"/>
+        <v>4060</v>
+      </c>
+      <c r="E56" s="23">
+        <v>145</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="0"/>
+        <v>81200</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9">
+        <v>28</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0</v>
+      </c>
+      <c r="J56" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
+        <v>7005</v>
+      </c>
+      <c r="B57" s="23">
+        <v>7</v>
+      </c>
+      <c r="C57" s="23">
+        <v>8</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="1"/>
+        <v>6300</v>
+      </c>
+      <c r="E57" s="23">
+        <v>180</v>
+      </c>
+      <c r="F57" s="9">
+        <f t="shared" si="0"/>
+        <v>126000</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9">
+        <v>35</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0</v>
+      </c>
+      <c r="J57" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <v>7006</v>
+      </c>
+      <c r="B58" s="23">
+        <v>7</v>
+      </c>
+      <c r="C58" s="23">
+        <v>8</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="1"/>
+        <v>9030</v>
+      </c>
+      <c r="E58" s="23">
+        <v>215</v>
+      </c>
+      <c r="F58" s="23">
+        <f t="shared" si="0"/>
+        <v>180600</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9">
+        <v>42</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0</v>
+      </c>
+      <c r="J58" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <v>7007</v>
+      </c>
+      <c r="B59" s="23">
+        <v>7</v>
+      </c>
+      <c r="C59" s="23">
+        <v>8</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="1"/>
+        <v>12250</v>
+      </c>
+      <c r="E59" s="23">
+        <v>250</v>
+      </c>
+      <c r="F59" s="23">
+        <f t="shared" si="0"/>
+        <v>245000</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
+        <v>49</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0</v>
+      </c>
+      <c r="J59" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
+        <v>7008</v>
+      </c>
+      <c r="B60" s="23">
+        <v>7</v>
+      </c>
+      <c r="C60" s="23">
+        <v>8</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="1"/>
+        <v>15960</v>
+      </c>
+      <c r="E60" s="23">
+        <v>285</v>
+      </c>
+      <c r="F60" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9">
+        <v>56</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0</v>
+      </c>
+      <c r="J60" s="9">
         <v>0</v>
       </c>
     </row>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -717,8 +717,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -845,20 +845,20 @@
       </c>
       <c r="D5" s="13">
         <f>H5*E5</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E5" s="13">
         <v>10</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" ref="F5:F60" si="0">J5*D5</f>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H5" s="13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="I5" s="13">
         <v>0</v>
@@ -879,20 +879,20 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" ref="D6:D60" si="1">H6*E6</f>
-        <v>360</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13">
         <v>45</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>360</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H6" s="13">
-        <v>8</v>
+        <v>0.8</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -913,20 +913,20 @@
       </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>1200</v>
+        <v>120</v>
       </c>
       <c r="E7" s="13">
         <v>80</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>18000</v>
+        <v>1800</v>
       </c>
       <c r="G7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="13">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="13">
         <v>0</v>
@@ -947,20 +947,20 @@
       </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>2530</v>
+        <v>253.00000000000003</v>
       </c>
       <c r="E8" s="13">
         <v>115</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>50600</v>
+        <v>5060.0000000000009</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H8" s="13">
-        <v>22</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -981,20 +981,20 @@
       </c>
       <c r="D9" s="13">
         <f t="shared" si="1"/>
-        <v>4350</v>
+        <v>435</v>
       </c>
       <c r="E9" s="13">
         <v>150</v>
       </c>
       <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>87000</v>
+        <v>8700</v>
       </c>
       <c r="G9" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="13">
-        <v>29</v>
+        <v>2.9</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1015,20 +1015,20 @@
       </c>
       <c r="D10" s="13">
         <f>H10*E10</f>
-        <v>6660</v>
+        <v>666</v>
       </c>
       <c r="E10" s="13">
         <v>185</v>
       </c>
       <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>133200</v>
+        <v>13320</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="13">
-        <v>36</v>
+        <v>3.6</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1049,20 +1049,20 @@
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>9460</v>
+        <v>946</v>
       </c>
       <c r="E11" s="13">
         <v>220</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>189200</v>
+        <v>18920</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="H11" s="13">
-        <v>43</v>
+        <v>4.3</v>
       </c>
       <c r="I11" s="13">
         <v>0</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D12" s="13">
         <f t="shared" si="1"/>
-        <v>12750</v>
+        <v>1275</v>
       </c>
       <c r="E12" s="13">
         <v>255</v>
@@ -1096,7 +1096,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="13">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="I12" s="13">
         <v>0</v>
@@ -1117,20 +1117,20 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E13" s="9">
         <v>15</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="9">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I13" s="9">
         <v>150</v>
@@ -1151,20 +1151,20 @@
       </c>
       <c r="D14" s="9">
         <f t="shared" si="1"/>
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9">
         <v>50</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>450</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H14" s="9">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -1185,20 +1185,20 @@
       </c>
       <c r="D15" s="9">
         <f t="shared" si="1"/>
-        <v>1360</v>
+        <v>136</v>
       </c>
       <c r="E15" s="9">
         <v>85</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="0"/>
-        <v>20400</v>
+        <v>2040</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="9">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="I15" s="9">
         <v>0</v>
@@ -1219,20 +1219,20 @@
       </c>
       <c r="D16" s="9">
         <f t="shared" si="1"/>
-        <v>2760</v>
+        <v>276</v>
       </c>
       <c r="E16" s="9">
         <v>120</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="0"/>
-        <v>55200</v>
+        <v>5520</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H16" s="9">
-        <v>23</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I16" s="9">
         <v>0</v>
@@ -1253,20 +1253,20 @@
       </c>
       <c r="D17" s="9">
         <f t="shared" si="1"/>
-        <v>4650</v>
+        <v>465</v>
       </c>
       <c r="E17" s="9">
         <v>155</v>
       </c>
       <c r="F17" s="9">
         <f t="shared" si="0"/>
-        <v>93000</v>
+        <v>9300</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H17" s="9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="I17" s="9">
         <v>0</v>
@@ -1287,20 +1287,20 @@
       </c>
       <c r="D18" s="9">
         <f t="shared" si="1"/>
-        <v>7030</v>
+        <v>703</v>
       </c>
       <c r="E18" s="9">
         <v>190</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="0"/>
-        <v>140600</v>
+        <v>14060</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H18" s="9">
-        <v>37</v>
+        <v>3.7</v>
       </c>
       <c r="I18" s="9">
         <v>0</v>
@@ -1321,20 +1321,20 @@
       </c>
       <c r="D19" s="9">
         <f t="shared" si="1"/>
-        <v>9900</v>
+        <v>990.00000000000011</v>
       </c>
       <c r="E19" s="9">
         <v>225</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="0"/>
-        <v>198000</v>
+        <v>19800.000000000004</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="9">
-        <v>44</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I19" s="9">
         <v>0</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="D20" s="9">
         <f t="shared" si="1"/>
-        <v>13260</v>
+        <v>1326</v>
       </c>
       <c r="E20" s="9">
         <v>260</v>
@@ -1368,7 +1368,7 @@
         <v>32</v>
       </c>
       <c r="H20" s="9">
-        <v>51</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -1389,20 +1389,20 @@
       </c>
       <c r="D21" s="7">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="E21" s="7">
         <v>20</v>
       </c>
       <c r="F21" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="7">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="I21" s="7">
         <v>300</v>
@@ -1423,20 +1423,20 @@
       </c>
       <c r="D22" s="7">
         <f t="shared" si="1"/>
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="E22" s="7">
         <v>55</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>5500</v>
+        <v>550</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
         <v>0</v>
@@ -1457,20 +1457,20 @@
       </c>
       <c r="D23" s="7">
         <f t="shared" si="1"/>
-        <v>1530</v>
+        <v>153</v>
       </c>
       <c r="E23" s="7">
         <v>90</v>
       </c>
       <c r="F23" s="7">
         <f t="shared" si="0"/>
-        <v>22950</v>
+        <v>2295</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H23" s="7">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="I23" s="7">
         <v>0</v>
@@ -1491,20 +1491,20 @@
       </c>
       <c r="D24" s="7">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="E24" s="7">
         <v>125</v>
       </c>
       <c r="F24" s="7">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="7">
-        <v>24</v>
+        <v>2.4</v>
       </c>
       <c r="I24" s="7">
         <v>0</v>
@@ -1525,20 +1525,20 @@
       </c>
       <c r="D25" s="7">
         <f t="shared" si="1"/>
-        <v>4960</v>
+        <v>496</v>
       </c>
       <c r="E25" s="7">
         <v>160</v>
       </c>
       <c r="F25" s="7">
         <f t="shared" si="0"/>
-        <v>99200</v>
+        <v>9920</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H25" s="7">
-        <v>31</v>
+        <v>3.1</v>
       </c>
       <c r="I25" s="7">
         <v>0</v>
@@ -1559,20 +1559,20 @@
       </c>
       <c r="D26" s="7">
         <f t="shared" si="1"/>
-        <v>7410</v>
+        <v>741</v>
       </c>
       <c r="E26" s="7">
         <v>195</v>
       </c>
       <c r="F26" s="7">
         <f t="shared" si="0"/>
-        <v>148200</v>
+        <v>14820</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H26" s="7">
-        <v>38</v>
+        <v>3.8</v>
       </c>
       <c r="I26" s="7">
         <v>0</v>
@@ -1593,20 +1593,20 @@
       </c>
       <c r="D27" s="7">
         <f t="shared" si="1"/>
-        <v>10350</v>
+        <v>1035</v>
       </c>
       <c r="E27" s="7">
         <v>230</v>
       </c>
       <c r="F27" s="7">
         <f t="shared" si="0"/>
-        <v>207000</v>
+        <v>20700</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="H27" s="7">
-        <v>45</v>
+        <v>4.5</v>
       </c>
       <c r="I27" s="7">
         <v>0</v>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D28" s="7">
         <f t="shared" si="1"/>
-        <v>13780</v>
+        <v>1378</v>
       </c>
       <c r="E28" s="7">
         <v>265</v>
@@ -1640,7 +1640,7 @@
         <v>33</v>
       </c>
       <c r="H28" s="7">
-        <v>52</v>
+        <v>5.2</v>
       </c>
       <c r="I28" s="7">
         <v>0</v>
@@ -1661,20 +1661,20 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E29" s="11">
         <v>25</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G29" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H29" s="11">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="I29" s="11">
         <v>500</v>
@@ -1695,20 +1695,20 @@
       </c>
       <c r="D30" s="11">
         <f t="shared" si="1"/>
-        <v>660</v>
+        <v>66</v>
       </c>
       <c r="E30" s="11">
         <v>60</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="0"/>
-        <v>6600</v>
+        <v>660</v>
       </c>
       <c r="G30" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H30" s="11">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I30" s="11">
         <v>0</v>
@@ -1729,20 +1729,20 @@
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>
-        <v>1710</v>
+        <v>171</v>
       </c>
       <c r="E31" s="11">
         <v>95</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="0"/>
-        <v>25650</v>
+        <v>2565</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="11">
-        <v>18</v>
+        <v>1.8</v>
       </c>
       <c r="I31" s="11">
         <v>0</v>
@@ -1763,20 +1763,20 @@
       </c>
       <c r="D32" s="11">
         <f t="shared" si="1"/>
-        <v>3250</v>
+        <v>325</v>
       </c>
       <c r="E32" s="11">
         <v>130</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>6500</v>
       </c>
       <c r="G32" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H32" s="11">
-        <v>25</v>
+        <v>2.5</v>
       </c>
       <c r="I32" s="11">
         <v>0</v>
@@ -1797,20 +1797,20 @@
       </c>
       <c r="D33" s="11">
         <f t="shared" si="1"/>
-        <v>5280</v>
+        <v>528</v>
       </c>
       <c r="E33" s="11">
         <v>165</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="0"/>
-        <v>105600</v>
+        <v>10560</v>
       </c>
       <c r="G33" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H33" s="11">
-        <v>32</v>
+        <v>3.2</v>
       </c>
       <c r="I33" s="11">
         <v>0</v>
@@ -1831,20 +1831,20 @@
       </c>
       <c r="D34" s="11">
         <f t="shared" si="1"/>
-        <v>7800</v>
+        <v>780</v>
       </c>
       <c r="E34" s="11">
         <v>200</v>
       </c>
       <c r="F34" s="15">
         <f t="shared" si="0"/>
-        <v>156000</v>
+        <v>15600</v>
       </c>
       <c r="G34" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="11">
-        <v>39</v>
+        <v>3.9</v>
       </c>
       <c r="I34" s="11">
         <v>0</v>
@@ -1865,20 +1865,20 @@
       </c>
       <c r="D35" s="11">
         <f t="shared" si="1"/>
-        <v>10810</v>
+        <v>1081</v>
       </c>
       <c r="E35" s="11">
         <v>235</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>216200</v>
+        <v>21620</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H35" s="11">
-        <v>46</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I35" s="11">
         <v>0</v>
@@ -1899,7 +1899,7 @@
       </c>
       <c r="D36" s="11">
         <f t="shared" si="1"/>
-        <v>14310</v>
+        <v>1431</v>
       </c>
       <c r="E36" s="11">
         <v>270</v>
@@ -1912,7 +1912,7 @@
         <v>34</v>
       </c>
       <c r="H36" s="11">
-        <v>53</v>
+        <v>5.3</v>
       </c>
       <c r="I36" s="11">
         <v>0</v>
@@ -1933,18 +1933,18 @@
       </c>
       <c r="D37" s="18">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="E37" s="17">
         <v>30</v>
       </c>
       <c r="F37" s="18">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>75</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="18">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I37" s="18">
         <v>750</v>
@@ -1965,18 +1965,18 @@
       </c>
       <c r="D38" s="18">
         <f t="shared" si="1"/>
-        <v>780</v>
+        <v>78</v>
       </c>
       <c r="E38" s="17">
         <v>65</v>
       </c>
       <c r="F38" s="18">
         <f t="shared" si="0"/>
-        <v>7800</v>
+        <v>780</v>
       </c>
       <c r="G38" s="18"/>
       <c r="H38" s="18">
-        <v>12</v>
+        <v>1.2</v>
       </c>
       <c r="I38" s="18">
         <v>0</v>
@@ -1997,18 +1997,18 @@
       </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>1900</v>
+        <v>190</v>
       </c>
       <c r="E39" s="17">
         <v>100</v>
       </c>
       <c r="F39" s="18">
         <f t="shared" si="0"/>
-        <v>28500</v>
+        <v>2850</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="18">
-        <v>19</v>
+        <v>1.9</v>
       </c>
       <c r="I39" s="18">
         <v>0</v>
@@ -2029,18 +2029,18 @@
       </c>
       <c r="D40" s="18">
         <f t="shared" si="1"/>
-        <v>3510</v>
+        <v>351</v>
       </c>
       <c r="E40" s="17">
         <v>135</v>
       </c>
       <c r="F40" s="18">
         <f t="shared" si="0"/>
-        <v>70200</v>
+        <v>7020</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="18">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="I40" s="18">
         <v>0</v>
@@ -2061,18 +2061,18 @@
       </c>
       <c r="D41" s="18">
         <f t="shared" si="1"/>
-        <v>5610</v>
+        <v>561</v>
       </c>
       <c r="E41" s="17">
         <v>170</v>
       </c>
       <c r="F41" s="18">
         <f t="shared" si="0"/>
-        <v>112200</v>
+        <v>11220</v>
       </c>
       <c r="G41" s="18"/>
       <c r="H41" s="18">
-        <v>33</v>
+        <v>3.3</v>
       </c>
       <c r="I41" s="18">
         <v>0</v>
@@ -2093,18 +2093,18 @@
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>8200</v>
+        <v>820</v>
       </c>
       <c r="E42" s="17">
         <v>205</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" si="0"/>
-        <v>164000</v>
+        <v>16400</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="18">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="I42" s="18">
         <v>0</v>
@@ -2125,18 +2125,18 @@
       </c>
       <c r="D43" s="18">
         <f t="shared" si="1"/>
-        <v>11280</v>
+        <v>1128</v>
       </c>
       <c r="E43" s="17">
         <v>240</v>
       </c>
       <c r="F43" s="17">
         <f t="shared" si="0"/>
-        <v>225600</v>
+        <v>22560</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="18">
-        <v>47</v>
+        <v>4.7</v>
       </c>
       <c r="I43" s="18">
         <v>0</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="D44" s="18">
         <f t="shared" si="1"/>
-        <v>14850</v>
+        <v>1485</v>
       </c>
       <c r="E44" s="17">
         <v>275</v>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="G44" s="18"/>
       <c r="H44" s="18">
-        <v>54</v>
+        <v>5.4</v>
       </c>
       <c r="I44" s="18">
         <v>0</v>
@@ -2189,18 +2189,18 @@
       </c>
       <c r="D45" s="21">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="E45" s="20">
         <v>35</v>
       </c>
       <c r="F45" s="21">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>105</v>
       </c>
       <c r="G45" s="21"/>
       <c r="H45" s="21">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="I45" s="21">
         <v>1050</v>
@@ -2221,18 +2221,18 @@
       </c>
       <c r="D46" s="21">
         <f t="shared" si="1"/>
-        <v>910</v>
+        <v>91</v>
       </c>
       <c r="E46" s="20">
         <v>70</v>
       </c>
       <c r="F46" s="21">
         <f t="shared" si="0"/>
-        <v>9100</v>
+        <v>910</v>
       </c>
       <c r="G46" s="21"/>
       <c r="H46" s="21">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="I46" s="21">
         <v>0</v>
@@ -2253,18 +2253,18 @@
       </c>
       <c r="D47" s="21">
         <f t="shared" si="1"/>
-        <v>2100</v>
+        <v>210</v>
       </c>
       <c r="E47" s="20">
         <v>105</v>
       </c>
       <c r="F47" s="21">
         <f t="shared" si="0"/>
-        <v>31500</v>
+        <v>3150</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I47" s="21">
         <v>0</v>
@@ -2285,18 +2285,18 @@
       </c>
       <c r="D48" s="21">
         <f t="shared" si="1"/>
-        <v>3780</v>
+        <v>378</v>
       </c>
       <c r="E48" s="20">
         <v>140</v>
       </c>
       <c r="F48" s="21">
         <f t="shared" si="0"/>
-        <v>75600</v>
+        <v>7560</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21">
-        <v>27</v>
+        <v>2.7</v>
       </c>
       <c r="I48" s="21">
         <v>0</v>
@@ -2317,18 +2317,18 @@
       </c>
       <c r="D49" s="21">
         <f t="shared" si="1"/>
-        <v>5950</v>
+        <v>595</v>
       </c>
       <c r="E49" s="20">
         <v>175</v>
       </c>
       <c r="F49" s="21">
         <f t="shared" si="0"/>
-        <v>119000</v>
+        <v>11900</v>
       </c>
       <c r="G49" s="21"/>
       <c r="H49" s="21">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="I49" s="21">
         <v>0</v>
@@ -2349,18 +2349,18 @@
       </c>
       <c r="D50" s="21">
         <f t="shared" si="1"/>
-        <v>8610</v>
+        <v>860.99999999999989</v>
       </c>
       <c r="E50" s="20">
         <v>210</v>
       </c>
       <c r="F50" s="20">
         <f t="shared" si="0"/>
-        <v>172200</v>
+        <v>17219.999999999996</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21">
-        <v>41</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I50" s="21">
         <v>0</v>
@@ -2381,18 +2381,18 @@
       </c>
       <c r="D51" s="21">
         <f t="shared" si="1"/>
-        <v>11760</v>
+        <v>1176</v>
       </c>
       <c r="E51" s="20">
         <v>245</v>
       </c>
       <c r="F51" s="20">
         <f t="shared" si="0"/>
-        <v>235200</v>
+        <v>23520</v>
       </c>
       <c r="G51" s="21"/>
       <c r="H51" s="21">
-        <v>48</v>
+        <v>4.8</v>
       </c>
       <c r="I51" s="21">
         <v>0</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D52" s="21">
         <f t="shared" si="1"/>
-        <v>15400</v>
+        <v>1540</v>
       </c>
       <c r="E52" s="20">
         <v>280</v>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21">
-        <v>55</v>
+        <v>5.5</v>
       </c>
       <c r="I52" s="21">
         <v>0</v>
@@ -2445,18 +2445,18 @@
       </c>
       <c r="D53" s="9">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="E53" s="23">
         <v>40</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="0"/>
-        <v>1400</v>
+        <v>140</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="I53" s="9">
         <v>1400</v>
@@ -2477,18 +2477,18 @@
       </c>
       <c r="D54" s="9">
         <f t="shared" si="1"/>
-        <v>1050</v>
+        <v>105</v>
       </c>
       <c r="E54" s="23">
         <v>75</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="0"/>
-        <v>10500</v>
+        <v>1050</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="I54" s="9">
         <v>0</v>
@@ -2509,18 +2509,18 @@
       </c>
       <c r="D55" s="9">
         <f t="shared" si="1"/>
-        <v>2310</v>
+        <v>231</v>
       </c>
       <c r="E55" s="23">
         <v>110</v>
       </c>
       <c r="F55" s="9">
         <f t="shared" si="0"/>
-        <v>34650</v>
+        <v>3465</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="I55" s="9">
         <v>0</v>
@@ -2541,18 +2541,18 @@
       </c>
       <c r="D56" s="9">
         <f t="shared" si="1"/>
-        <v>4060</v>
+        <v>406</v>
       </c>
       <c r="E56" s="23">
         <v>145</v>
       </c>
       <c r="F56" s="9">
         <f t="shared" si="0"/>
-        <v>81200</v>
+        <v>8120</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9">
-        <v>28</v>
+        <v>2.8</v>
       </c>
       <c r="I56" s="9">
         <v>0</v>
@@ -2573,18 +2573,18 @@
       </c>
       <c r="D57" s="9">
         <f t="shared" si="1"/>
-        <v>6300</v>
+        <v>630</v>
       </c>
       <c r="E57" s="23">
         <v>180</v>
       </c>
       <c r="F57" s="9">
         <f t="shared" si="0"/>
-        <v>126000</v>
+        <v>12600</v>
       </c>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
-        <v>35</v>
+        <v>3.5</v>
       </c>
       <c r="I57" s="9">
         <v>0</v>
@@ -2605,18 +2605,18 @@
       </c>
       <c r="D58" s="9">
         <f t="shared" si="1"/>
-        <v>9030</v>
+        <v>903</v>
       </c>
       <c r="E58" s="23">
         <v>215</v>
       </c>
       <c r="F58" s="23">
         <f t="shared" si="0"/>
-        <v>180600</v>
+        <v>18060</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="I58" s="9">
         <v>0</v>
@@ -2637,18 +2637,18 @@
       </c>
       <c r="D59" s="9">
         <f t="shared" si="1"/>
-        <v>12250</v>
+        <v>1225</v>
       </c>
       <c r="E59" s="23">
         <v>250</v>
       </c>
       <c r="F59" s="23">
         <f t="shared" si="0"/>
-        <v>245000</v>
+        <v>24500</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9">
-        <v>49</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I59" s="9">
         <v>0</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="D60" s="9">
         <f t="shared" si="1"/>
-        <v>15960</v>
+        <v>1596</v>
       </c>
       <c r="E60" s="23">
         <v>285</v>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9">
-        <v>56</v>
+        <v>5.6</v>
       </c>
       <c r="I60" s="9">
         <v>0</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t>解锁花费金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -789,7 +793,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>18</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -221,7 +221,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>float32</t>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,7 +722,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -319,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +378,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -722,7 +731,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -730,7 +739,7 @@
     <col min="1" max="1" width="20.296875" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="24" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.296875" customWidth="1"/>
@@ -748,7 +757,7 @@
       <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="25" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -780,7 +789,7 @@
       <c r="C2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -815,7 +824,7 @@
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="26" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -847,7 +856,7 @@
       <c r="C5" s="13">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="27">
         <f>H5*E5</f>
         <v>1</v>
       </c>
@@ -881,7 +890,7 @@
       <c r="C6" s="13">
         <v>8</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="27">
         <f t="shared" ref="D6:D60" si="1">H6*E6</f>
         <v>36</v>
       </c>
@@ -915,7 +924,7 @@
       <c r="C7" s="13">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="27">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
@@ -949,7 +958,7 @@
       <c r="C8" s="13">
         <v>8</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="27">
         <f t="shared" si="1"/>
         <v>253.00000000000003</v>
       </c>
@@ -983,7 +992,7 @@
       <c r="C9" s="13">
         <v>8</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="27">
         <f t="shared" si="1"/>
         <v>435</v>
       </c>
@@ -1017,7 +1026,7 @@
       <c r="C10" s="13">
         <v>8</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="27">
         <f>H10*E10</f>
         <v>666</v>
       </c>
@@ -1051,7 +1060,7 @@
       <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="27">
         <f t="shared" si="1"/>
         <v>946</v>
       </c>
@@ -1085,7 +1094,7 @@
       <c r="C12" s="13">
         <v>8</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="27">
         <f t="shared" si="1"/>
         <v>1275</v>
       </c>
@@ -1119,7 +1128,7 @@
       <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="28">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -1153,7 +1162,7 @@
       <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="28">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -1187,7 +1196,7 @@
       <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="28">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
@@ -1221,7 +1230,7 @@
       <c r="C16" s="9">
         <v>8</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="28">
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
@@ -1255,7 +1264,7 @@
       <c r="C17" s="9">
         <v>8</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="28">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
@@ -1289,7 +1298,7 @@
       <c r="C18" s="9">
         <v>8</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="28">
         <f t="shared" si="1"/>
         <v>703</v>
       </c>
@@ -1323,7 +1332,7 @@
       <c r="C19" s="9">
         <v>8</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="28">
         <f t="shared" si="1"/>
         <v>990.00000000000011</v>
       </c>
@@ -1357,7 +1366,7 @@
       <c r="C20" s="9">
         <v>8</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="28">
         <f t="shared" si="1"/>
         <v>1326</v>
       </c>
@@ -1391,7 +1400,7 @@
       <c r="C21" s="7">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="29">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -1425,7 +1434,7 @@
       <c r="C22" s="7">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="29">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="C23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="29">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
@@ -1493,7 +1502,7 @@
       <c r="C24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="29">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
@@ -1527,7 +1536,7 @@
       <c r="C25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="29">
         <f t="shared" si="1"/>
         <v>496</v>
       </c>
@@ -1561,7 +1570,7 @@
       <c r="C26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="29">
         <f t="shared" si="1"/>
         <v>741</v>
       </c>
@@ -1595,7 +1604,7 @@
       <c r="C27" s="7">
         <v>8</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="29">
         <f t="shared" si="1"/>
         <v>1035</v>
       </c>
@@ -1629,7 +1638,7 @@
       <c r="C28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="29">
         <f t="shared" si="1"/>
         <v>1378</v>
       </c>
@@ -1663,7 +1672,7 @@
       <c r="C29" s="11">
         <v>8</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="30">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1697,7 +1706,7 @@
       <c r="C30" s="11">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="30">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -1731,7 +1740,7 @@
       <c r="C31" s="11">
         <v>8</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="30">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
@@ -1765,7 +1774,7 @@
       <c r="C32" s="11">
         <v>8</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="30">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
@@ -1799,7 +1808,7 @@
       <c r="C33" s="11">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="30">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
@@ -1833,7 +1842,7 @@
       <c r="C34" s="15">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="30">
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
@@ -1867,7 +1876,7 @@
       <c r="C35" s="15">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="30">
         <f t="shared" si="1"/>
         <v>1081</v>
       </c>
@@ -1901,7 +1910,7 @@
       <c r="C36" s="15">
         <v>8</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="30">
         <f t="shared" si="1"/>
         <v>1431</v>
       </c>
@@ -1935,7 +1944,7 @@
       <c r="C37" s="17">
         <v>8</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="31">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1967,7 +1976,7 @@
       <c r="C38" s="17">
         <v>8</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="31">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
@@ -1999,7 +2008,7 @@
       <c r="C39" s="17">
         <v>8</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="31">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
@@ -2031,7 +2040,7 @@
       <c r="C40" s="17">
         <v>8</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="31">
         <f t="shared" si="1"/>
         <v>351</v>
       </c>
@@ -2063,7 +2072,7 @@
       <c r="C41" s="17">
         <v>8</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="31">
         <f t="shared" si="1"/>
         <v>561</v>
       </c>
@@ -2095,7 +2104,7 @@
       <c r="C42" s="17">
         <v>8</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="31">
         <f t="shared" si="1"/>
         <v>820</v>
       </c>
@@ -2127,7 +2136,7 @@
       <c r="C43" s="17">
         <v>8</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="31">
         <f t="shared" si="1"/>
         <v>1128</v>
       </c>
@@ -2159,7 +2168,7 @@
       <c r="C44" s="17">
         <v>8</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="31">
         <f t="shared" si="1"/>
         <v>1485</v>
       </c>
@@ -2191,7 +2200,7 @@
       <c r="C45" s="20">
         <v>8</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="32">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -2223,7 +2232,7 @@
       <c r="C46" s="20">
         <v>8</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="32">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
@@ -2255,7 +2264,7 @@
       <c r="C47" s="20">
         <v>8</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47" s="32">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
@@ -2287,7 +2296,7 @@
       <c r="C48" s="20">
         <v>8</v>
       </c>
-      <c r="D48" s="21">
+      <c r="D48" s="32">
         <f t="shared" si="1"/>
         <v>378</v>
       </c>
@@ -2319,7 +2328,7 @@
       <c r="C49" s="20">
         <v>8</v>
       </c>
-      <c r="D49" s="21">
+      <c r="D49" s="32">
         <f t="shared" si="1"/>
         <v>595</v>
       </c>
@@ -2351,7 +2360,7 @@
       <c r="C50" s="20">
         <v>8</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="32">
         <f t="shared" si="1"/>
         <v>860.99999999999989</v>
       </c>
@@ -2383,7 +2392,7 @@
       <c r="C51" s="20">
         <v>8</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="32">
         <f t="shared" si="1"/>
         <v>1176</v>
       </c>
@@ -2415,7 +2424,7 @@
       <c r="C52" s="20">
         <v>8</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="32">
         <f t="shared" si="1"/>
         <v>1540</v>
       </c>
@@ -2447,7 +2456,7 @@
       <c r="C53" s="23">
         <v>8</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="28">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -2479,7 +2488,7 @@
       <c r="C54" s="23">
         <v>8</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="28">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
@@ -2511,7 +2520,7 @@
       <c r="C55" s="23">
         <v>8</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="28">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
@@ -2543,7 +2552,7 @@
       <c r="C56" s="23">
         <v>8</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="28">
         <f t="shared" si="1"/>
         <v>406</v>
       </c>
@@ -2575,7 +2584,7 @@
       <c r="C57" s="23">
         <v>8</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="28">
         <f t="shared" si="1"/>
         <v>630</v>
       </c>
@@ -2607,7 +2616,7 @@
       <c r="C58" s="23">
         <v>8</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="28">
         <f t="shared" si="1"/>
         <v>903</v>
       </c>
@@ -2639,7 +2648,7 @@
       <c r="C59" s="23">
         <v>8</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="28">
         <f t="shared" si="1"/>
         <v>1225</v>
       </c>
@@ -2671,7 +2680,7 @@
       <c r="C60" s="23">
         <v>8</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="28">
         <f t="shared" si="1"/>
         <v>1596</v>
       </c>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -721,8 +721,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -848,14 +848,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="13">
-        <f>H5*E5</f>
+        <f>INT(H5*E5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="13">
         <v>10</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" ref="F5:F60" si="0">J5*D5</f>
+        <f>INT(J5*D5)</f>
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -882,14 +882,14 @@
         <v>8</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D60" si="1">H6*E6</f>
+        <f t="shared" ref="D6:D60" si="0">INT(H6*E6)</f>
         <v>36</v>
       </c>
       <c r="E6" s="13">
         <v>45</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6:F60" si="1">INT(J6*D6)</f>
         <v>360</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -916,14 +916,14 @@
         <v>8</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
       <c r="E7" s="13">
         <v>80</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -950,15 +950,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="1"/>
-        <v>253.00000000000003</v>
+        <f t="shared" si="0"/>
+        <v>253</v>
       </c>
       <c r="E8" s="13">
         <v>115</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>5060.0000000000009</v>
+        <f t="shared" si="1"/>
+        <v>5060</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>31</v>
@@ -984,14 +984,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>435</v>
       </c>
       <c r="E9" s="13">
         <v>150</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8700</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -1018,14 +1018,14 @@
         <v>8</v>
       </c>
       <c r="D10" s="13">
-        <f>H10*E10</f>
+        <f t="shared" si="0"/>
         <v>666</v>
       </c>
       <c r="E10" s="13">
         <v>185</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13320</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1052,14 +1052,14 @@
         <v>8</v>
       </c>
       <c r="D11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>946</v>
       </c>
       <c r="E11" s="13">
         <v>220</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18920</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1086,14 +1086,14 @@
         <v>8</v>
       </c>
       <c r="D12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1275</v>
       </c>
       <c r="E12" s="13">
         <v>255</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1119,15 +1119,15 @@
       <c r="C13" s="9">
         <v>8</v>
       </c>
-      <c r="D13" s="9">
-        <f t="shared" si="1"/>
+      <c r="D13" s="13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E13" s="9">
         <v>15</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
+      <c r="F13" s="13">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
@@ -1153,15 +1153,15 @@
       <c r="C14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
-        <f t="shared" si="1"/>
+      <c r="D14" s="13">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
+      <c r="F14" s="13">
+        <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -1187,15 +1187,15 @@
       <c r="C15" s="9">
         <v>8</v>
       </c>
-      <c r="D15" s="9">
-        <f t="shared" si="1"/>
+      <c r="D15" s="13">
+        <f t="shared" si="0"/>
         <v>136</v>
       </c>
       <c r="E15" s="9">
         <v>85</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="G15" s="10" t="s">
@@ -1221,15 +1221,15 @@
       <c r="C16" s="9">
         <v>8</v>
       </c>
-      <c r="D16" s="9">
-        <f t="shared" si="1"/>
+      <c r="D16" s="13">
+        <f t="shared" si="0"/>
         <v>276</v>
       </c>
       <c r="E16" s="9">
         <v>120</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
+      <c r="F16" s="13">
+        <f t="shared" si="1"/>
         <v>5520</v>
       </c>
       <c r="G16" s="10" t="s">
@@ -1255,15 +1255,15 @@
       <c r="C17" s="9">
         <v>8</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="1"/>
+      <c r="D17" s="13">
+        <f t="shared" si="0"/>
         <v>465</v>
       </c>
       <c r="E17" s="9">
         <v>155</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
         <v>9300</v>
       </c>
       <c r="G17" s="10" t="s">
@@ -1289,15 +1289,15 @@
       <c r="C18" s="9">
         <v>8</v>
       </c>
-      <c r="D18" s="9">
-        <f t="shared" si="1"/>
+      <c r="D18" s="13">
+        <f t="shared" si="0"/>
         <v>703</v>
       </c>
       <c r="E18" s="9">
         <v>190</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
+      <c r="F18" s="13">
+        <f t="shared" si="1"/>
         <v>14060</v>
       </c>
       <c r="G18" s="10" t="s">
@@ -1323,16 +1323,16 @@
       <c r="C19" s="9">
         <v>8</v>
       </c>
-      <c r="D19" s="9">
-        <f t="shared" si="1"/>
-        <v>990.00000000000011</v>
+      <c r="D19" s="13">
+        <f t="shared" si="0"/>
+        <v>990</v>
       </c>
       <c r="E19" s="9">
         <v>225</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
-        <v>19800.000000000004</v>
+      <c r="F19" s="13">
+        <f t="shared" si="1"/>
+        <v>19800</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>32</v>
@@ -1357,15 +1357,15 @@
       <c r="C20" s="9">
         <v>8</v>
       </c>
-      <c r="D20" s="9">
-        <f t="shared" si="1"/>
+      <c r="D20" s="13">
+        <f t="shared" si="0"/>
         <v>1326</v>
       </c>
       <c r="E20" s="9">
         <v>260</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
+      <c r="F20" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="10" t="s">
@@ -1391,15 +1391,15 @@
       <c r="C21" s="7">
         <v>8</v>
       </c>
-      <c r="D21" s="7">
-        <f t="shared" si="1"/>
+      <c r="D21" s="13">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E21" s="7">
         <v>20</v>
       </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
+      <c r="F21" s="13">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -1425,15 +1425,15 @@
       <c r="C22" s="7">
         <v>8</v>
       </c>
-      <c r="D22" s="7">
-        <f t="shared" si="1"/>
+      <c r="D22" s="13">
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="E22" s="7">
         <v>55</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
+      <c r="F22" s="13">
+        <f t="shared" si="1"/>
         <v>550</v>
       </c>
       <c r="G22" s="8" t="s">
@@ -1459,15 +1459,15 @@
       <c r="C23" s="7">
         <v>8</v>
       </c>
-      <c r="D23" s="7">
-        <f t="shared" si="1"/>
+      <c r="D23" s="13">
+        <f t="shared" si="0"/>
         <v>153</v>
       </c>
       <c r="E23" s="7">
         <v>90</v>
       </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
+      <c r="F23" s="13">
+        <f t="shared" si="1"/>
         <v>2295</v>
       </c>
       <c r="G23" s="8" t="s">
@@ -1493,15 +1493,15 @@
       <c r="C24" s="7">
         <v>8</v>
       </c>
-      <c r="D24" s="7">
-        <f t="shared" si="1"/>
+      <c r="D24" s="13">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="E24" s="7">
         <v>125</v>
       </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
+      <c r="F24" s="13">
+        <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="G24" s="8" t="s">
@@ -1527,15 +1527,15 @@
       <c r="C25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
-        <f t="shared" si="1"/>
+      <c r="D25" s="13">
+        <f t="shared" si="0"/>
         <v>496</v>
       </c>
       <c r="E25" s="7">
         <v>160</v>
       </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
+      <c r="F25" s="13">
+        <f t="shared" si="1"/>
         <v>9920</v>
       </c>
       <c r="G25" s="8" t="s">
@@ -1561,15 +1561,15 @@
       <c r="C26" s="7">
         <v>8</v>
       </c>
-      <c r="D26" s="7">
-        <f t="shared" si="1"/>
+      <c r="D26" s="13">
+        <f t="shared" si="0"/>
         <v>741</v>
       </c>
       <c r="E26" s="7">
         <v>195</v>
       </c>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
+      <c r="F26" s="13">
+        <f t="shared" si="1"/>
         <v>14820</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -1595,15 +1595,15 @@
       <c r="C27" s="7">
         <v>8</v>
       </c>
-      <c r="D27" s="7">
-        <f t="shared" si="1"/>
+      <c r="D27" s="13">
+        <f t="shared" si="0"/>
         <v>1035</v>
       </c>
       <c r="E27" s="7">
         <v>230</v>
       </c>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
+      <c r="F27" s="13">
+        <f t="shared" si="1"/>
         <v>20700</v>
       </c>
       <c r="G27" s="8" t="s">
@@ -1629,15 +1629,15 @@
       <c r="C28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="7">
-        <f t="shared" si="1"/>
+      <c r="D28" s="13">
+        <f t="shared" si="0"/>
         <v>1378</v>
       </c>
       <c r="E28" s="7">
         <v>265</v>
       </c>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
+      <c r="F28" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -1663,15 +1663,15 @@
       <c r="C29" s="11">
         <v>8</v>
       </c>
-      <c r="D29" s="11">
-        <f t="shared" si="1"/>
+      <c r="D29" s="13">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="E29" s="11">
         <v>25</v>
       </c>
-      <c r="F29" s="11">
-        <f t="shared" si="0"/>
+      <c r="F29" s="13">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -1697,15 +1697,15 @@
       <c r="C30" s="11">
         <v>8</v>
       </c>
-      <c r="D30" s="11">
-        <f t="shared" si="1"/>
+      <c r="D30" s="13">
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E30" s="11">
         <v>60</v>
       </c>
-      <c r="F30" s="11">
-        <f t="shared" si="0"/>
+      <c r="F30" s="13">
+        <f t="shared" si="1"/>
         <v>660</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -1731,15 +1731,15 @@
       <c r="C31" s="11">
         <v>8</v>
       </c>
-      <c r="D31" s="11">
-        <f t="shared" si="1"/>
+      <c r="D31" s="13">
+        <f t="shared" si="0"/>
         <v>171</v>
       </c>
       <c r="E31" s="11">
         <v>95</v>
       </c>
-      <c r="F31" s="11">
-        <f t="shared" si="0"/>
+      <c r="F31" s="13">
+        <f t="shared" si="1"/>
         <v>2565</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -1765,15 +1765,15 @@
       <c r="C32" s="11">
         <v>8</v>
       </c>
-      <c r="D32" s="11">
-        <f t="shared" si="1"/>
+      <c r="D32" s="13">
+        <f t="shared" si="0"/>
         <v>325</v>
       </c>
       <c r="E32" s="11">
         <v>130</v>
       </c>
-      <c r="F32" s="11">
-        <f t="shared" si="0"/>
+      <c r="F32" s="13">
+        <f t="shared" si="1"/>
         <v>6500</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -1799,15 +1799,15 @@
       <c r="C33" s="11">
         <v>8</v>
       </c>
-      <c r="D33" s="11">
-        <f t="shared" si="1"/>
+      <c r="D33" s="13">
+        <f t="shared" si="0"/>
         <v>528</v>
       </c>
       <c r="E33" s="11">
         <v>165</v>
       </c>
-      <c r="F33" s="11">
-        <f t="shared" si="0"/>
+      <c r="F33" s="13">
+        <f t="shared" si="1"/>
         <v>10560</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -1833,15 +1833,15 @@
       <c r="C34" s="15">
         <v>8</v>
       </c>
-      <c r="D34" s="11">
-        <f t="shared" si="1"/>
+      <c r="D34" s="13">
+        <f t="shared" si="0"/>
         <v>780</v>
       </c>
       <c r="E34" s="11">
         <v>200</v>
       </c>
-      <c r="F34" s="15">
-        <f t="shared" si="0"/>
+      <c r="F34" s="13">
+        <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -1867,15 +1867,15 @@
       <c r="C35" s="15">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
-        <f t="shared" si="1"/>
+      <c r="D35" s="13">
+        <f t="shared" si="0"/>
         <v>1081</v>
       </c>
       <c r="E35" s="11">
         <v>235</v>
       </c>
-      <c r="F35" s="15">
-        <f t="shared" si="0"/>
+      <c r="F35" s="13">
+        <f t="shared" si="1"/>
         <v>21620</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -1901,15 +1901,15 @@
       <c r="C36" s="15">
         <v>8</v>
       </c>
-      <c r="D36" s="11">
-        <f t="shared" si="1"/>
+      <c r="D36" s="13">
+        <f t="shared" si="0"/>
         <v>1431</v>
       </c>
       <c r="E36" s="11">
         <v>270</v>
       </c>
-      <c r="F36" s="15">
-        <f t="shared" si="0"/>
+      <c r="F36" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G36" s="12" t="s">
@@ -1935,15 +1935,15 @@
       <c r="C37" s="17">
         <v>8</v>
       </c>
-      <c r="D37" s="18">
-        <f t="shared" si="1"/>
+      <c r="D37" s="13">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="E37" s="17">
         <v>30</v>
       </c>
-      <c r="F37" s="18">
-        <f t="shared" si="0"/>
+      <c r="F37" s="13">
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="G37" s="18"/>
@@ -1967,15 +1967,15 @@
       <c r="C38" s="17">
         <v>8</v>
       </c>
-      <c r="D38" s="18">
-        <f t="shared" si="1"/>
+      <c r="D38" s="13">
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="E38" s="17">
         <v>65</v>
       </c>
-      <c r="F38" s="18">
-        <f t="shared" si="0"/>
+      <c r="F38" s="13">
+        <f t="shared" si="1"/>
         <v>780</v>
       </c>
       <c r="G38" s="18"/>
@@ -1999,15 +1999,15 @@
       <c r="C39" s="17">
         <v>8</v>
       </c>
-      <c r="D39" s="18">
-        <f t="shared" si="1"/>
+      <c r="D39" s="13">
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="E39" s="17">
         <v>100</v>
       </c>
-      <c r="F39" s="18">
-        <f t="shared" si="0"/>
+      <c r="F39" s="13">
+        <f t="shared" si="1"/>
         <v>2850</v>
       </c>
       <c r="G39" s="18"/>
@@ -2031,15 +2031,15 @@
       <c r="C40" s="17">
         <v>8</v>
       </c>
-      <c r="D40" s="18">
-        <f t="shared" si="1"/>
+      <c r="D40" s="13">
+        <f t="shared" si="0"/>
         <v>351</v>
       </c>
       <c r="E40" s="17">
         <v>135</v>
       </c>
-      <c r="F40" s="18">
-        <f t="shared" si="0"/>
+      <c r="F40" s="13">
+        <f t="shared" si="1"/>
         <v>7020</v>
       </c>
       <c r="G40" s="18"/>
@@ -2063,15 +2063,15 @@
       <c r="C41" s="17">
         <v>8</v>
       </c>
-      <c r="D41" s="18">
-        <f t="shared" si="1"/>
+      <c r="D41" s="13">
+        <f t="shared" si="0"/>
         <v>561</v>
       </c>
       <c r="E41" s="17">
         <v>170</v>
       </c>
-      <c r="F41" s="18">
-        <f t="shared" si="0"/>
+      <c r="F41" s="13">
+        <f t="shared" si="1"/>
         <v>11220</v>
       </c>
       <c r="G41" s="18"/>
@@ -2095,15 +2095,15 @@
       <c r="C42" s="17">
         <v>8</v>
       </c>
-      <c r="D42" s="18">
-        <f t="shared" si="1"/>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
         <v>820</v>
       </c>
       <c r="E42" s="17">
         <v>205</v>
       </c>
-      <c r="F42" s="17">
-        <f t="shared" si="0"/>
+      <c r="F42" s="13">
+        <f t="shared" si="1"/>
         <v>16400</v>
       </c>
       <c r="G42" s="18"/>
@@ -2127,15 +2127,15 @@
       <c r="C43" s="17">
         <v>8</v>
       </c>
-      <c r="D43" s="18">
-        <f t="shared" si="1"/>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
         <v>1128</v>
       </c>
       <c r="E43" s="17">
         <v>240</v>
       </c>
-      <c r="F43" s="17">
-        <f t="shared" si="0"/>
+      <c r="F43" s="13">
+        <f t="shared" si="1"/>
         <v>22560</v>
       </c>
       <c r="G43" s="18"/>
@@ -2159,15 +2159,15 @@
       <c r="C44" s="17">
         <v>8</v>
       </c>
-      <c r="D44" s="18">
-        <f t="shared" si="1"/>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
         <v>1485</v>
       </c>
       <c r="E44" s="17">
         <v>275</v>
       </c>
-      <c r="F44" s="17">
-        <f t="shared" si="0"/>
+      <c r="F44" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="18"/>
@@ -2191,15 +2191,15 @@
       <c r="C45" s="20">
         <v>8</v>
       </c>
-      <c r="D45" s="21">
-        <f t="shared" si="1"/>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E45" s="20">
         <v>35</v>
       </c>
-      <c r="F45" s="21">
-        <f t="shared" si="0"/>
+      <c r="F45" s="13">
+        <f t="shared" si="1"/>
         <v>105</v>
       </c>
       <c r="G45" s="21"/>
@@ -2223,15 +2223,15 @@
       <c r="C46" s="20">
         <v>8</v>
       </c>
-      <c r="D46" s="21">
-        <f t="shared" si="1"/>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E46" s="20">
         <v>70</v>
       </c>
-      <c r="F46" s="21">
-        <f t="shared" si="0"/>
+      <c r="F46" s="13">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
       <c r="G46" s="21"/>
@@ -2255,15 +2255,15 @@
       <c r="C47" s="20">
         <v>8</v>
       </c>
-      <c r="D47" s="21">
-        <f t="shared" si="1"/>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="E47" s="20">
         <v>105</v>
       </c>
-      <c r="F47" s="21">
-        <f t="shared" si="0"/>
+      <c r="F47" s="13">
+        <f t="shared" si="1"/>
         <v>3150</v>
       </c>
       <c r="G47" s="21"/>
@@ -2287,15 +2287,15 @@
       <c r="C48" s="20">
         <v>8</v>
       </c>
-      <c r="D48" s="21">
-        <f t="shared" si="1"/>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="E48" s="20">
         <v>140</v>
       </c>
-      <c r="F48" s="21">
-        <f t="shared" si="0"/>
+      <c r="F48" s="13">
+        <f t="shared" si="1"/>
         <v>7560</v>
       </c>
       <c r="G48" s="21"/>
@@ -2319,15 +2319,15 @@
       <c r="C49" s="20">
         <v>8</v>
       </c>
-      <c r="D49" s="21">
-        <f t="shared" si="1"/>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
         <v>595</v>
       </c>
       <c r="E49" s="20">
         <v>175</v>
       </c>
-      <c r="F49" s="21">
-        <f t="shared" si="0"/>
+      <c r="F49" s="13">
+        <f t="shared" si="1"/>
         <v>11900</v>
       </c>
       <c r="G49" s="21"/>
@@ -2351,16 +2351,16 @@
       <c r="C50" s="20">
         <v>8</v>
       </c>
-      <c r="D50" s="21">
-        <f t="shared" si="1"/>
-        <v>860.99999999999989</v>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
+        <v>861</v>
       </c>
       <c r="E50" s="20">
         <v>210</v>
       </c>
-      <c r="F50" s="20">
-        <f t="shared" si="0"/>
-        <v>17219.999999999996</v>
+      <c r="F50" s="13">
+        <f t="shared" si="1"/>
+        <v>17220</v>
       </c>
       <c r="G50" s="21"/>
       <c r="H50" s="21">
@@ -2383,15 +2383,15 @@
       <c r="C51" s="20">
         <v>8</v>
       </c>
-      <c r="D51" s="21">
-        <f t="shared" si="1"/>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
         <v>1176</v>
       </c>
       <c r="E51" s="20">
         <v>245</v>
       </c>
-      <c r="F51" s="20">
-        <f t="shared" si="0"/>
+      <c r="F51" s="13">
+        <f t="shared" si="1"/>
         <v>23520</v>
       </c>
       <c r="G51" s="21"/>
@@ -2415,15 +2415,15 @@
       <c r="C52" s="20">
         <v>8</v>
       </c>
-      <c r="D52" s="21">
-        <f t="shared" si="1"/>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
         <v>1540</v>
       </c>
       <c r="E52" s="20">
         <v>280</v>
       </c>
-      <c r="F52" s="20">
-        <f t="shared" si="0"/>
+      <c r="F52" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="21"/>
@@ -2447,15 +2447,15 @@
       <c r="C53" s="23">
         <v>8</v>
       </c>
-      <c r="D53" s="9">
-        <f t="shared" si="1"/>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="E53" s="23">
         <v>40</v>
       </c>
-      <c r="F53" s="9">
-        <f t="shared" si="0"/>
+      <c r="F53" s="13">
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="G53" s="9"/>
@@ -2479,15 +2479,15 @@
       <c r="C54" s="23">
         <v>8</v>
       </c>
-      <c r="D54" s="9">
-        <f t="shared" si="1"/>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="E54" s="23">
         <v>75</v>
       </c>
-      <c r="F54" s="9">
-        <f t="shared" si="0"/>
+      <c r="F54" s="13">
+        <f t="shared" si="1"/>
         <v>1050</v>
       </c>
       <c r="G54" s="9"/>
@@ -2511,15 +2511,15 @@
       <c r="C55" s="23">
         <v>8</v>
       </c>
-      <c r="D55" s="9">
-        <f t="shared" si="1"/>
+      <c r="D55" s="13">
+        <f t="shared" si="0"/>
         <v>231</v>
       </c>
       <c r="E55" s="23">
         <v>110</v>
       </c>
-      <c r="F55" s="9">
-        <f t="shared" si="0"/>
+      <c r="F55" s="13">
+        <f t="shared" si="1"/>
         <v>3465</v>
       </c>
       <c r="G55" s="9"/>
@@ -2543,15 +2543,15 @@
       <c r="C56" s="23">
         <v>8</v>
       </c>
-      <c r="D56" s="9">
-        <f t="shared" si="1"/>
+      <c r="D56" s="13">
+        <f t="shared" si="0"/>
         <v>406</v>
       </c>
       <c r="E56" s="23">
         <v>145</v>
       </c>
-      <c r="F56" s="9">
-        <f t="shared" si="0"/>
+      <c r="F56" s="13">
+        <f t="shared" si="1"/>
         <v>8120</v>
       </c>
       <c r="G56" s="9"/>
@@ -2575,15 +2575,15 @@
       <c r="C57" s="23">
         <v>8</v>
       </c>
-      <c r="D57" s="9">
-        <f t="shared" si="1"/>
+      <c r="D57" s="13">
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="E57" s="23">
         <v>180</v>
       </c>
-      <c r="F57" s="9">
-        <f t="shared" si="0"/>
+      <c r="F57" s="13">
+        <f t="shared" si="1"/>
         <v>12600</v>
       </c>
       <c r="G57" s="9"/>
@@ -2607,15 +2607,15 @@
       <c r="C58" s="23">
         <v>8</v>
       </c>
-      <c r="D58" s="9">
-        <f t="shared" si="1"/>
+      <c r="D58" s="13">
+        <f t="shared" si="0"/>
         <v>903</v>
       </c>
       <c r="E58" s="23">
         <v>215</v>
       </c>
-      <c r="F58" s="23">
-        <f t="shared" si="0"/>
+      <c r="F58" s="13">
+        <f t="shared" si="1"/>
         <v>18060</v>
       </c>
       <c r="G58" s="9"/>
@@ -2639,15 +2639,15 @@
       <c r="C59" s="23">
         <v>8</v>
       </c>
-      <c r="D59" s="9">
-        <f t="shared" si="1"/>
+      <c r="D59" s="13">
+        <f t="shared" si="0"/>
         <v>1225</v>
       </c>
       <c r="E59" s="23">
         <v>250</v>
       </c>
-      <c r="F59" s="23">
-        <f t="shared" si="0"/>
+      <c r="F59" s="13">
+        <f t="shared" si="1"/>
         <v>24500</v>
       </c>
       <c r="G59" s="9"/>
@@ -2671,15 +2671,15 @@
       <c r="C60" s="23">
         <v>8</v>
       </c>
-      <c r="D60" s="9">
-        <f t="shared" si="1"/>
+      <c r="D60" s="13">
+        <f t="shared" si="0"/>
         <v>1596</v>
       </c>
       <c r="E60" s="23">
         <v>285</v>
       </c>
-      <c r="F60" s="23">
-        <f t="shared" si="0"/>
+      <c r="F60" s="13">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G60" s="9"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -222,6 +222,17 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
+  </si>
+  <si>
+    <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卧室</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +389,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -721,8 +738,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1131,7 +1148,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="H13" s="9">
         <v>0.2</v>
@@ -1946,7 +1963,9 @@
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G37" s="18"/>
+      <c r="G37" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H37" s="18">
         <v>0.5</v>
       </c>
@@ -1978,7 +1997,9 @@
         <f t="shared" si="1"/>
         <v>780</v>
       </c>
-      <c r="G38" s="18"/>
+      <c r="G38" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H38" s="18">
         <v>1.2</v>
       </c>
@@ -2010,7 +2031,9 @@
         <f t="shared" si="1"/>
         <v>2850</v>
       </c>
-      <c r="G39" s="18"/>
+      <c r="G39" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H39" s="18">
         <v>1.9</v>
       </c>
@@ -2042,7 +2065,9 @@
         <f t="shared" si="1"/>
         <v>7020</v>
       </c>
-      <c r="G40" s="18"/>
+      <c r="G40" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H40" s="18">
         <v>2.6</v>
       </c>
@@ -2074,7 +2099,9 @@
         <f t="shared" si="1"/>
         <v>11220</v>
       </c>
-      <c r="G41" s="18"/>
+      <c r="G41" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H41" s="18">
         <v>3.3</v>
       </c>
@@ -2106,7 +2133,9 @@
         <f t="shared" si="1"/>
         <v>16400</v>
       </c>
-      <c r="G42" s="18"/>
+      <c r="G42" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H42" s="18">
         <v>4</v>
       </c>
@@ -2138,7 +2167,9 @@
         <f t="shared" si="1"/>
         <v>22560</v>
       </c>
-      <c r="G43" s="18"/>
+      <c r="G43" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H43" s="18">
         <v>4.7</v>
       </c>
@@ -2170,7 +2201,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G44" s="18"/>
+      <c r="G44" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="H44" s="18">
         <v>5.4</v>
       </c>
@@ -2202,7 +2235,9 @@
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="G45" s="21"/>
+      <c r="G45" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H45" s="21">
         <v>0.6</v>
       </c>
@@ -2234,7 +2269,9 @@
         <f t="shared" si="1"/>
         <v>910</v>
       </c>
-      <c r="G46" s="21"/>
+      <c r="G46" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H46" s="21">
         <v>1.3</v>
       </c>
@@ -2266,7 +2303,9 @@
         <f t="shared" si="1"/>
         <v>3150</v>
       </c>
-      <c r="G47" s="21"/>
+      <c r="G47" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H47" s="21">
         <v>2</v>
       </c>
@@ -2298,7 +2337,9 @@
         <f t="shared" si="1"/>
         <v>7560</v>
       </c>
-      <c r="G48" s="21"/>
+      <c r="G48" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H48" s="21">
         <v>2.7</v>
       </c>
@@ -2330,7 +2371,9 @@
         <f t="shared" si="1"/>
         <v>11900</v>
       </c>
-      <c r="G49" s="21"/>
+      <c r="G49" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H49" s="21">
         <v>3.4</v>
       </c>
@@ -2362,7 +2405,9 @@
         <f t="shared" si="1"/>
         <v>17220</v>
       </c>
-      <c r="G50" s="21"/>
+      <c r="G50" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H50" s="21">
         <v>4.0999999999999996</v>
       </c>
@@ -2394,7 +2439,9 @@
         <f t="shared" si="1"/>
         <v>23520</v>
       </c>
-      <c r="G51" s="21"/>
+      <c r="G51" s="25" t="s">
+        <v>48</v>
+      </c>
       <c r="H51" s="21">
         <v>4.8</v>
       </c>
@@ -2426,7 +2473,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G52" s="21"/>
+      <c r="G52" s="25" t="s">
+        <v>50</v>
+      </c>
       <c r="H52" s="21">
         <v>5.5</v>
       </c>
@@ -2458,7 +2507,9 @@
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="G53" s="9"/>
+      <c r="G53" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H53" s="9">
         <v>0.7</v>
       </c>
@@ -2490,7 +2541,9 @@
         <f t="shared" si="1"/>
         <v>1050</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H54" s="9">
         <v>1.4</v>
       </c>
@@ -2522,7 +2575,9 @@
         <f t="shared" si="1"/>
         <v>3465</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H55" s="9">
         <v>2.1</v>
       </c>
@@ -2554,7 +2609,9 @@
         <f t="shared" si="1"/>
         <v>8120</v>
       </c>
-      <c r="G56" s="9"/>
+      <c r="G56" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H56" s="9">
         <v>2.8</v>
       </c>
@@ -2586,7 +2643,9 @@
         <f t="shared" si="1"/>
         <v>12600</v>
       </c>
-      <c r="G57" s="9"/>
+      <c r="G57" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H57" s="9">
         <v>3.5</v>
       </c>
@@ -2618,7 +2677,9 @@
         <f t="shared" si="1"/>
         <v>18060</v>
       </c>
-      <c r="G58" s="9"/>
+      <c r="G58" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H58" s="9">
         <v>4.2</v>
       </c>
@@ -2650,7 +2711,9 @@
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H59" s="9">
         <v>4.9000000000000004</v>
       </c>
@@ -2682,7 +2745,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G60" s="9"/>
+      <c r="G60" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="H60" s="9">
         <v>5.6</v>
       </c>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -116,15 +116,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProduceGold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ProduceTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelUpCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,6 +225,38 @@
   </si>
   <si>
     <t>卧室</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProduceItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出额外道具(道具id-万分比权重|道具id-万分比权重)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级需要的道具(道具id-数量|道具id-数量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelUpNeedItem</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -749,13 +773,14 @@
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.296875" customWidth="1"/>
-    <col min="8" max="9" width="16.69921875" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.8984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" customWidth="1"/>
+    <col min="10" max="11" width="16.69921875" customWidth="1"/>
+    <col min="12" max="12" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -766,28 +791,34 @@
         <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -804,57 +835,69 @@
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1001</v>
       </c>
@@ -865,30 +908,32 @@
         <v>8</v>
       </c>
       <c r="D5" s="13">
-        <f>INT(H5*E5)</f>
+        <f t="shared" ref="D5:D36" si="0">INT(J5*E5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="13">
         <v>10</v>
       </c>
-      <c r="F5" s="13">
-        <f>INT(J5*D5)</f>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:G36" si="1">INT(L5*D5)</f>
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="13">
         <v>0.1</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="K5" s="13">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1002</v>
       </c>
@@ -899,30 +944,32 @@
         <v>8</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" ref="D6:D60" si="0">INT(H6*E6)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E6" s="13">
         <v>45</v>
       </c>
-      <c r="F6" s="13">
-        <f t="shared" ref="F6:F60" si="1">INT(J6*D6)</f>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13">
+        <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="H6" s="13"/>
+      <c r="I6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="13">
         <v>0.8</v>
       </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>1003</v>
       </c>
@@ -939,24 +986,26 @@
       <c r="E7" s="13">
         <v>80</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="13"/>
+      <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="H7" s="13"/>
+      <c r="I7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="13">
         <v>1.5</v>
       </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="K7" s="13">
+        <v>0</v>
+      </c>
+      <c r="L7" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>1004</v>
       </c>
@@ -973,24 +1022,26 @@
       <c r="E8" s="13">
         <v>115</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="13"/>
+      <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="H8" s="13"/>
+      <c r="I8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="K8" s="13">
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1005</v>
       </c>
@@ -1007,24 +1058,26 @@
       <c r="E9" s="13">
         <v>150</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="H9" s="13"/>
+      <c r="I9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="13">
         <v>2.9</v>
       </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="K9" s="13">
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1006</v>
       </c>
@@ -1041,24 +1094,26 @@
       <c r="E10" s="13">
         <v>185</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>13320</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="13">
         <v>3.6</v>
       </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="K10" s="13">
+        <v>0</v>
+      </c>
+      <c r="L10" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>1007</v>
       </c>
@@ -1075,24 +1130,26 @@
       <c r="E11" s="13">
         <v>220</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18920</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="13">
         <v>4.3</v>
       </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>1008</v>
       </c>
@@ -1109,24 +1166,26 @@
       <c r="E12" s="13">
         <v>255</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="13">
         <v>5</v>
       </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>2001</v>
       </c>
@@ -1143,24 +1202,26 @@
       <c r="E13" s="9">
         <v>15</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="9"/>
+      <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H13" s="9">
+      <c r="H13" s="13"/>
+      <c r="I13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="9">
         <v>0.2</v>
       </c>
-      <c r="I13" s="9">
+      <c r="K13" s="9">
         <v>150</v>
       </c>
-      <c r="J13" s="9">
+      <c r="L13" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>2002</v>
       </c>
@@ -1177,24 +1238,26 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="9"/>
+      <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="H14" s="13"/>
+      <c r="I14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="9">
         <v>0.9</v>
       </c>
-      <c r="I14" s="9">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>2003</v>
       </c>
@@ -1211,24 +1274,26 @@
       <c r="E15" s="9">
         <v>85</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="9"/>
+      <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="H15" s="13"/>
+      <c r="I15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="9">
         <v>1.6</v>
       </c>
-      <c r="I15" s="9">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>2004</v>
       </c>
@@ -1245,24 +1310,26 @@
       <c r="E16" s="9">
         <v>120</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="9"/>
+      <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H16" s="9">
+      <c r="H16" s="13"/>
+      <c r="I16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I16" s="9">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>2005</v>
       </c>
@@ -1279,24 +1346,26 @@
       <c r="E17" s="9">
         <v>155</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="9"/>
+      <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="9">
+      <c r="H17" s="13"/>
+      <c r="I17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="9">
         <v>3</v>
       </c>
-      <c r="I17" s="9">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>2006</v>
       </c>
@@ -1313,24 +1382,26 @@
       <c r="E18" s="9">
         <v>190</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="9"/>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="9">
+      <c r="H18" s="13"/>
+      <c r="I18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="9">
         <v>3.7</v>
       </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="K18" s="9">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>2007</v>
       </c>
@@ -1347,24 +1418,26 @@
       <c r="E19" s="9">
         <v>225</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="9"/>
+      <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="9">
+      <c r="H19" s="13"/>
+      <c r="I19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="9">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I19" s="9">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="K19" s="9">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>2008</v>
       </c>
@@ -1381,24 +1454,26 @@
       <c r="E20" s="9">
         <v>260</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="9"/>
+      <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="9">
+      <c r="H20" s="13"/>
+      <c r="I20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="9">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I20" s="9">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>3001</v>
       </c>
@@ -1415,24 +1490,26 @@
       <c r="E21" s="7">
         <v>20</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="7"/>
+      <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="H21" s="13"/>
+      <c r="I21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="7">
         <v>0.3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="K21" s="7">
         <v>300</v>
       </c>
-      <c r="J21" s="7">
+      <c r="L21" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>3002</v>
       </c>
@@ -1449,24 +1526,26 @@
       <c r="E22" s="7">
         <v>55</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="7"/>
+      <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="7">
+      <c r="H22" s="13"/>
+      <c r="I22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="K22" s="7">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3003</v>
       </c>
@@ -1483,24 +1562,26 @@
       <c r="E23" s="7">
         <v>90</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="7"/>
+      <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="H23" s="13"/>
+      <c r="I23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="7">
         <v>1.7</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="K23" s="7">
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>3004</v>
       </c>
@@ -1517,24 +1598,26 @@
       <c r="E24" s="7">
         <v>125</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="7"/>
+      <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="H24" s="13"/>
+      <c r="I24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="7">
         <v>2.4</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>3005</v>
       </c>
@@ -1551,24 +1634,26 @@
       <c r="E25" s="7">
         <v>160</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="7"/>
+      <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="7">
+      <c r="H25" s="13"/>
+      <c r="I25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="7">
         <v>3.1</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="K25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>3006</v>
       </c>
@@ -1585,24 +1670,26 @@
       <c r="E26" s="7">
         <v>195</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="7"/>
+      <c r="G26" s="13">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="7">
+      <c r="H26" s="13"/>
+      <c r="I26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="7">
         <v>3.8</v>
       </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="K26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>3007</v>
       </c>
@@ -1619,24 +1706,26 @@
       <c r="E27" s="7">
         <v>230</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="7"/>
+      <c r="G27" s="13">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="H27" s="13"/>
+      <c r="I27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="7">
         <v>4.5</v>
       </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="K27" s="7">
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>3008</v>
       </c>
@@ -1653,24 +1742,26 @@
       <c r="E28" s="7">
         <v>265</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="7"/>
+      <c r="G28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="7">
+      <c r="H28" s="13"/>
+      <c r="I28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="7">
         <v>5.2</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28" s="7">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>4001</v>
       </c>
@@ -1687,24 +1778,26 @@
       <c r="E29" s="11">
         <v>25</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="11"/>
+      <c r="G29" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="11">
+      <c r="H29" s="13"/>
+      <c r="I29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="11">
         <v>0.4</v>
       </c>
-      <c r="I29" s="11">
+      <c r="K29" s="11">
         <v>500</v>
       </c>
-      <c r="J29" s="11">
+      <c r="L29" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>4002</v>
       </c>
@@ -1721,24 +1814,26 @@
       <c r="E30" s="11">
         <v>60</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11"/>
+      <c r="G30" s="13">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="H30" s="13"/>
+      <c r="I30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I30" s="11">
-        <v>0</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>4003</v>
       </c>
@@ -1755,24 +1850,26 @@
       <c r="E31" s="11">
         <v>95</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="11"/>
+      <c r="G31" s="13">
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="11">
+      <c r="H31" s="13"/>
+      <c r="I31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="11">
         <v>1.8</v>
       </c>
-      <c r="I31" s="11">
-        <v>0</v>
-      </c>
-      <c r="J31" s="11">
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>4004</v>
       </c>
@@ -1789,24 +1886,26 @@
       <c r="E32" s="11">
         <v>130</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="11"/>
+      <c r="G32" s="13">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="11">
+      <c r="H32" s="13"/>
+      <c r="I32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="11">
         <v>2.5</v>
       </c>
-      <c r="I32" s="11">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="K32" s="11">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>4005</v>
       </c>
@@ -1823,24 +1922,26 @@
       <c r="E33" s="11">
         <v>165</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="11"/>
+      <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
-      <c r="G33" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="11">
+      <c r="H33" s="13"/>
+      <c r="I33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="11">
         <v>3.2</v>
       </c>
-      <c r="I33" s="11">
-        <v>0</v>
-      </c>
-      <c r="J33" s="11">
+      <c r="K33" s="11">
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>4006</v>
       </c>
@@ -1857,24 +1958,26 @@
       <c r="E34" s="11">
         <v>200</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="11"/>
+      <c r="G34" s="13">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="G34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="11">
+      <c r="H34" s="13"/>
+      <c r="I34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="11">
         <v>3.9</v>
       </c>
-      <c r="I34" s="11">
-        <v>0</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="K34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>4007</v>
       </c>
@@ -1891,24 +1994,26 @@
       <c r="E35" s="11">
         <v>235</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="11"/>
+      <c r="G35" s="13">
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="11">
+      <c r="H35" s="13"/>
+      <c r="I35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="11">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I35" s="11">
-        <v>0</v>
-      </c>
-      <c r="J35" s="11">
+      <c r="K35" s="11">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>4008</v>
       </c>
@@ -1925,24 +2030,26 @@
       <c r="E36" s="11">
         <v>270</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="11"/>
+      <c r="G36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="11">
+      <c r="H36" s="13"/>
+      <c r="I36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="11">
         <v>5.3</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="16">
         <v>5001</v>
       </c>
@@ -1953,30 +2060,32 @@
         <v>8</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D37:D68" si="2">INT(J37*E37)</f>
         <v>15</v>
       </c>
       <c r="E37" s="17">
         <v>30</v>
       </c>
-      <c r="F37" s="13">
-        <f t="shared" si="1"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="13">
+        <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
         <v>75</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="18">
+      <c r="H37" s="13"/>
+      <c r="I37" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" s="18">
         <v>0.5</v>
       </c>
-      <c r="I37" s="18">
+      <c r="K37" s="18">
         <v>750</v>
       </c>
-      <c r="J37" s="18">
+      <c r="L37" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="16">
         <v>5002</v>
       </c>
@@ -1987,30 +2096,32 @@
         <v>8</v>
       </c>
       <c r="D38" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="E38" s="17">
         <v>65</v>
       </c>
-      <c r="F38" s="13">
-        <f t="shared" si="1"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="13">
+        <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="G38" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="18">
+      <c r="H38" s="13"/>
+      <c r="I38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J38" s="18">
         <v>1.2</v>
       </c>
-      <c r="I38" s="18">
-        <v>0</v>
-      </c>
-      <c r="J38" s="18">
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="16">
         <v>5003</v>
       </c>
@@ -2021,30 +2132,32 @@
         <v>8</v>
       </c>
       <c r="D39" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="E39" s="17">
         <v>100</v>
       </c>
-      <c r="F39" s="13">
-        <f t="shared" si="1"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="13">
+        <f t="shared" si="3"/>
         <v>2850</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="18">
+      <c r="H39" s="13"/>
+      <c r="I39" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J39" s="18">
         <v>1.9</v>
       </c>
-      <c r="I39" s="18">
-        <v>0</v>
-      </c>
-      <c r="J39" s="18">
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
+      <c r="L39" s="18">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="16">
         <v>5004</v>
       </c>
@@ -2055,30 +2168,32 @@
         <v>8</v>
       </c>
       <c r="D40" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>351</v>
       </c>
       <c r="E40" s="17">
         <v>135</v>
       </c>
-      <c r="F40" s="13">
-        <f t="shared" si="1"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="13">
+        <f t="shared" si="3"/>
         <v>7020</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="18">
+      <c r="H40" s="13"/>
+      <c r="I40" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" s="18">
         <v>2.6</v>
       </c>
-      <c r="I40" s="18">
-        <v>0</v>
-      </c>
-      <c r="J40" s="18">
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>5005</v>
       </c>
@@ -2089,30 +2204,32 @@
         <v>8</v>
       </c>
       <c r="D41" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>561</v>
       </c>
       <c r="E41" s="17">
         <v>170</v>
       </c>
-      <c r="F41" s="13">
-        <f t="shared" si="1"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="13">
+        <f t="shared" si="3"/>
         <v>11220</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="18">
+      <c r="H41" s="13"/>
+      <c r="I41" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="18">
         <v>3.3</v>
       </c>
-      <c r="I41" s="18">
-        <v>0</v>
-      </c>
-      <c r="J41" s="18">
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>5006</v>
       </c>
@@ -2123,30 +2240,32 @@
         <v>8</v>
       </c>
       <c r="D42" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>820</v>
       </c>
       <c r="E42" s="17">
         <v>205</v>
       </c>
-      <c r="F42" s="13">
-        <f t="shared" si="1"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="13">
+        <f t="shared" si="3"/>
         <v>16400</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="18">
+      <c r="H42" s="13"/>
+      <c r="I42" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J42" s="18">
         <v>4</v>
       </c>
-      <c r="I42" s="18">
-        <v>0</v>
-      </c>
-      <c r="J42" s="18">
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="16">
         <v>5007</v>
       </c>
@@ -2157,30 +2276,32 @@
         <v>8</v>
       </c>
       <c r="D43" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1128</v>
       </c>
       <c r="E43" s="17">
         <v>240</v>
       </c>
-      <c r="F43" s="13">
-        <f t="shared" si="1"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="13">
+        <f t="shared" si="3"/>
         <v>22560</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="18">
+      <c r="H43" s="13"/>
+      <c r="I43" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="18">
         <v>4.7</v>
       </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>5008</v>
       </c>
@@ -2191,30 +2312,32 @@
         <v>8</v>
       </c>
       <c r="D44" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1485</v>
       </c>
       <c r="E44" s="17">
         <v>275</v>
       </c>
-      <c r="F44" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="18">
+      <c r="F44" s="17"/>
+      <c r="G44" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="J44" s="18">
         <v>5.4</v>
       </c>
-      <c r="I44" s="18">
-        <v>0</v>
-      </c>
-      <c r="J44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>6001</v>
       </c>
@@ -2225,30 +2348,32 @@
         <v>8</v>
       </c>
       <c r="D45" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E45" s="20">
         <v>35</v>
       </c>
-      <c r="F45" s="13">
-        <f t="shared" si="1"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13">
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="G45" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="21">
+      <c r="H45" s="13"/>
+      <c r="I45" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J45" s="21">
         <v>0.6</v>
       </c>
-      <c r="I45" s="21">
+      <c r="K45" s="21">
         <v>1050</v>
       </c>
-      <c r="J45" s="21">
+      <c r="L45" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>6002</v>
       </c>
@@ -2259,30 +2384,32 @@
         <v>8</v>
       </c>
       <c r="D46" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>91</v>
       </c>
       <c r="E46" s="20">
         <v>70</v>
       </c>
-      <c r="F46" s="13">
-        <f t="shared" si="1"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13">
+        <f t="shared" si="3"/>
         <v>910</v>
       </c>
-      <c r="G46" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" s="21">
+      <c r="H46" s="13"/>
+      <c r="I46" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" s="21">
         <v>1.3</v>
       </c>
-      <c r="I46" s="21">
-        <v>0</v>
-      </c>
-      <c r="J46" s="21">
+      <c r="K46" s="21">
+        <v>0</v>
+      </c>
+      <c r="L46" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>6003</v>
       </c>
@@ -2293,30 +2420,32 @@
         <v>8</v>
       </c>
       <c r="D47" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="E47" s="20">
         <v>105</v>
       </c>
-      <c r="F47" s="13">
-        <f t="shared" si="1"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13">
+        <f t="shared" si="3"/>
         <v>3150</v>
       </c>
-      <c r="G47" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="21">
+      <c r="H47" s="13"/>
+      <c r="I47" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" s="21">
         <v>2</v>
       </c>
-      <c r="I47" s="21">
-        <v>0</v>
-      </c>
-      <c r="J47" s="21">
+      <c r="K47" s="21">
+        <v>0</v>
+      </c>
+      <c r="L47" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>6004</v>
       </c>
@@ -2327,30 +2456,32 @@
         <v>8</v>
       </c>
       <c r="D48" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>378</v>
       </c>
       <c r="E48" s="20">
         <v>140</v>
       </c>
-      <c r="F48" s="13">
-        <f t="shared" si="1"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13">
+        <f t="shared" si="3"/>
         <v>7560</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="21">
+      <c r="H48" s="13"/>
+      <c r="I48" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" s="21">
         <v>2.7</v>
       </c>
-      <c r="I48" s="21">
-        <v>0</v>
-      </c>
-      <c r="J48" s="21">
+      <c r="K48" s="21">
+        <v>0</v>
+      </c>
+      <c r="L48" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>6005</v>
       </c>
@@ -2361,30 +2492,32 @@
         <v>8</v>
       </c>
       <c r="D49" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>595</v>
       </c>
       <c r="E49" s="20">
         <v>175</v>
       </c>
-      <c r="F49" s="13">
-        <f t="shared" si="1"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13">
+        <f t="shared" si="3"/>
         <v>11900</v>
       </c>
-      <c r="G49" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H49" s="21">
+      <c r="H49" s="13"/>
+      <c r="I49" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" s="21">
         <v>3.4</v>
       </c>
-      <c r="I49" s="21">
-        <v>0</v>
-      </c>
-      <c r="J49" s="21">
+      <c r="K49" s="21">
+        <v>0</v>
+      </c>
+      <c r="L49" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>6006</v>
       </c>
@@ -2395,30 +2528,32 @@
         <v>8</v>
       </c>
       <c r="D50" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>861</v>
       </c>
       <c r="E50" s="20">
         <v>210</v>
       </c>
-      <c r="F50" s="13">
-        <f t="shared" si="1"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13">
+        <f t="shared" si="3"/>
         <v>17220</v>
       </c>
-      <c r="G50" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" s="21">
+      <c r="H50" s="13"/>
+      <c r="I50" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" s="21">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I50" s="21">
-        <v>0</v>
-      </c>
-      <c r="J50" s="21">
+      <c r="K50" s="21">
+        <v>0</v>
+      </c>
+      <c r="L50" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>6007</v>
       </c>
@@ -2429,30 +2564,32 @@
         <v>8</v>
       </c>
       <c r="D51" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1176</v>
       </c>
       <c r="E51" s="20">
         <v>245</v>
       </c>
-      <c r="F51" s="13">
-        <f t="shared" si="1"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13">
+        <f t="shared" si="3"/>
         <v>23520</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H51" s="21">
+      <c r="H51" s="13"/>
+      <c r="I51" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" s="21">
         <v>4.8</v>
       </c>
-      <c r="I51" s="21">
-        <v>0</v>
-      </c>
-      <c r="J51" s="21">
+      <c r="K51" s="21">
+        <v>0</v>
+      </c>
+      <c r="L51" s="21">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>6008</v>
       </c>
@@ -2463,30 +2600,32 @@
         <v>8</v>
       </c>
       <c r="D52" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1540</v>
       </c>
       <c r="E52" s="20">
         <v>280</v>
       </c>
-      <c r="F52" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="21">
+      <c r="F52" s="20"/>
+      <c r="G52" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="J52" s="21">
         <v>5.5</v>
       </c>
-      <c r="I52" s="21">
-        <v>0</v>
-      </c>
-      <c r="J52" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52" s="21">
+        <v>0</v>
+      </c>
+      <c r="L52" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="22">
         <v>7001</v>
       </c>
@@ -2497,30 +2636,32 @@
         <v>8</v>
       </c>
       <c r="D53" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E53" s="23">
         <v>40</v>
       </c>
-      <c r="F53" s="13">
-        <f t="shared" si="1"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="13">
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="G53" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H53" s="9">
+      <c r="H53" s="13"/>
+      <c r="I53" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J53" s="9">
         <v>0.7</v>
       </c>
-      <c r="I53" s="9">
+      <c r="K53" s="9">
         <v>1400</v>
       </c>
-      <c r="J53" s="9">
+      <c r="L53" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="22">
         <v>7002</v>
       </c>
@@ -2531,30 +2672,32 @@
         <v>8</v>
       </c>
       <c r="D54" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="E54" s="23">
         <v>75</v>
       </c>
-      <c r="F54" s="13">
-        <f t="shared" si="1"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="13">
+        <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="G54" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" s="9">
+      <c r="H54" s="13"/>
+      <c r="I54" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" s="9">
         <v>1.4</v>
       </c>
-      <c r="I54" s="9">
-        <v>0</v>
-      </c>
-      <c r="J54" s="9">
+      <c r="K54" s="9">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="22">
         <v>7003</v>
       </c>
@@ -2565,30 +2708,32 @@
         <v>8</v>
       </c>
       <c r="D55" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
       <c r="E55" s="23">
         <v>110</v>
       </c>
-      <c r="F55" s="13">
-        <f t="shared" si="1"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="13">
+        <f t="shared" si="3"/>
         <v>3465</v>
       </c>
-      <c r="G55" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H55" s="9">
+      <c r="H55" s="13"/>
+      <c r="I55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" s="9">
         <v>2.1</v>
       </c>
-      <c r="I55" s="9">
-        <v>0</v>
-      </c>
-      <c r="J55" s="9">
+      <c r="K55" s="9">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="22">
         <v>7004</v>
       </c>
@@ -2599,30 +2744,32 @@
         <v>8</v>
       </c>
       <c r="D56" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>406</v>
       </c>
       <c r="E56" s="23">
         <v>145</v>
       </c>
-      <c r="F56" s="13">
-        <f t="shared" si="1"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="13">
+        <f t="shared" si="3"/>
         <v>8120</v>
       </c>
-      <c r="G56" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H56" s="9">
+      <c r="H56" s="13"/>
+      <c r="I56" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J56" s="9">
         <v>2.8</v>
       </c>
-      <c r="I56" s="9">
-        <v>0</v>
-      </c>
-      <c r="J56" s="9">
+      <c r="K56" s="9">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="22">
         <v>7005</v>
       </c>
@@ -2633,30 +2780,32 @@
         <v>8</v>
       </c>
       <c r="D57" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>630</v>
       </c>
       <c r="E57" s="23">
         <v>180</v>
       </c>
-      <c r="F57" s="13">
-        <f t="shared" si="1"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="13">
+        <f t="shared" si="3"/>
         <v>12600</v>
       </c>
-      <c r="G57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="9">
+      <c r="H57" s="13"/>
+      <c r="I57" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57" s="9">
         <v>3.5</v>
       </c>
-      <c r="I57" s="9">
-        <v>0</v>
-      </c>
-      <c r="J57" s="9">
+      <c r="K57" s="9">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="22">
         <v>7006</v>
       </c>
@@ -2667,30 +2816,32 @@
         <v>8</v>
       </c>
       <c r="D58" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>903</v>
       </c>
       <c r="E58" s="23">
         <v>215</v>
       </c>
-      <c r="F58" s="13">
-        <f t="shared" si="1"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="13">
+        <f t="shared" si="3"/>
         <v>18060</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H58" s="9">
+      <c r="H58" s="13"/>
+      <c r="I58" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J58" s="9">
         <v>4.2</v>
       </c>
-      <c r="I58" s="9">
-        <v>0</v>
-      </c>
-      <c r="J58" s="9">
+      <c r="K58" s="9">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="22">
         <v>7007</v>
       </c>
@@ -2701,30 +2852,32 @@
         <v>8</v>
       </c>
       <c r="D59" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1225</v>
       </c>
       <c r="E59" s="23">
         <v>250</v>
       </c>
-      <c r="F59" s="13">
-        <f t="shared" si="1"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="13">
+        <f t="shared" si="3"/>
         <v>24500</v>
       </c>
-      <c r="G59" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H59" s="9">
+      <c r="H59" s="13"/>
+      <c r="I59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J59" s="9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I59" s="9">
-        <v>0</v>
-      </c>
-      <c r="J59" s="9">
+      <c r="K59" s="9">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="22">
         <v>7008</v>
       </c>
@@ -2735,26 +2888,28 @@
         <v>8</v>
       </c>
       <c r="D60" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1596</v>
       </c>
       <c r="E60" s="23">
         <v>285</v>
       </c>
-      <c r="F60" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H60" s="9">
+      <c r="F60" s="23"/>
+      <c r="G60" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J60" s="9">
         <v>5.6</v>
       </c>
-      <c r="I60" s="9">
-        <v>0</v>
-      </c>
-      <c r="J60" s="9">
+      <c r="K60" s="9">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2787,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -248,6 +248,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LevelUpNeedItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>产出额外道具(道具id-万分比权重|道具id-万分比权重)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,7 +260,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LevelUpNeedItem</t>
+    <t>1-0|2-0</t>
+  </si>
+  <si>
+    <t>1-0|2-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-0|10-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-10|2-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-20|2-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-40|2-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-80|2-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-160|2-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-320|2-160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5|10-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10|10-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-20|10-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-40|10-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-80|10-160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-160|10-320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1000|2-500|3-300|4-1500|10-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,6 +480,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +829,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F53" sqref="F53:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -773,8 +839,9 @@
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3984375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.8984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="31.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>
     <col min="10" max="11" width="16.69921875" customWidth="1"/>
     <col min="12" max="12" width="25.5" customWidth="1"/>
@@ -803,7 +870,7 @@
         <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I1" t="s">
         <v>19</v>
@@ -876,13 +943,13 @@
         <v>38</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>37</v>
@@ -914,12 +981,16 @@
       <c r="E5" s="13">
         <v>10</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G36" si="1">INT(L5*D5)</f>
         <v>5</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
@@ -950,12 +1021,16 @@
       <c r="E6" s="13">
         <v>45</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" s="14" t="s">
         <v>29</v>
       </c>
@@ -986,12 +1061,16 @@
       <c r="E7" s="13">
         <v>80</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I7" s="14" t="s">
         <v>29</v>
       </c>
@@ -1022,12 +1101,16 @@
       <c r="E8" s="13">
         <v>115</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I8" s="14" t="s">
         <v>29</v>
       </c>
@@ -1058,12 +1141,16 @@
       <c r="E9" s="13">
         <v>150</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I9" s="14" t="s">
         <v>29</v>
       </c>
@@ -1094,12 +1181,16 @@
       <c r="E10" s="13">
         <v>185</v>
       </c>
-      <c r="F10" s="13"/>
+      <c r="F10" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>13320</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" s="14" t="s">
         <v>29</v>
       </c>
@@ -1130,12 +1221,16 @@
       <c r="E11" s="13">
         <v>220</v>
       </c>
-      <c r="F11" s="13"/>
+      <c r="F11" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18920</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I11" s="14" t="s">
         <v>29</v>
       </c>
@@ -1166,12 +1261,16 @@
       <c r="E12" s="13">
         <v>255</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I12" s="14" t="s">
         <v>29</v>
       </c>
@@ -1202,12 +1301,16 @@
       <c r="E13" s="9">
         <v>15</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="I13" s="10" t="s">
         <v>47</v>
       </c>
@@ -1238,12 +1341,16 @@
       <c r="E14" s="9">
         <v>50</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1274,12 +1381,16 @@
       <c r="E15" s="9">
         <v>85</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1310,12 +1421,16 @@
       <c r="E16" s="9">
         <v>120</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I16" s="10" t="s">
         <v>30</v>
       </c>
@@ -1346,12 +1461,16 @@
       <c r="E17" s="9">
         <v>155</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I17" s="10" t="s">
         <v>30</v>
       </c>
@@ -1382,12 +1501,16 @@
       <c r="E18" s="9">
         <v>190</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
       </c>
@@ -1418,12 +1541,16 @@
       <c r="E19" s="9">
         <v>225</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I19" s="10" t="s">
         <v>30</v>
       </c>
@@ -1454,12 +1581,16 @@
       <c r="E20" s="9">
         <v>260</v>
       </c>
-      <c r="F20" s="9"/>
+      <c r="F20" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I20" s="10" t="s">
         <v>30</v>
       </c>
@@ -1490,12 +1621,16 @@
       <c r="E21" s="7">
         <v>20</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="I21" s="8" t="s">
         <v>31</v>
       </c>
@@ -1526,12 +1661,16 @@
       <c r="E22" s="7">
         <v>55</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1562,12 +1701,16 @@
       <c r="E23" s="7">
         <v>90</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
@@ -1598,12 +1741,16 @@
       <c r="E24" s="7">
         <v>125</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1634,12 +1781,16 @@
       <c r="E25" s="7">
         <v>160</v>
       </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
       </c>
@@ -1670,12 +1821,16 @@
       <c r="E26" s="7">
         <v>195</v>
       </c>
-      <c r="F26" s="7"/>
+      <c r="F26" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1706,12 +1861,16 @@
       <c r="E27" s="7">
         <v>230</v>
       </c>
-      <c r="F27" s="7"/>
+      <c r="F27" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="I27" s="8" t="s">
         <v>31</v>
       </c>
@@ -1742,12 +1901,16 @@
       <c r="E28" s="7">
         <v>265</v>
       </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="I28" s="8" t="s">
         <v>31</v>
       </c>
@@ -1778,12 +1941,16 @@
       <c r="E29" s="11">
         <v>25</v>
       </c>
-      <c r="F29" s="11"/>
+      <c r="F29" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="I29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1814,12 +1981,16 @@
       <c r="E30" s="11">
         <v>60</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="26" t="s">
+        <v>59</v>
+      </c>
       <c r="I30" s="12" t="s">
         <v>32</v>
       </c>
@@ -1850,12 +2021,16 @@
       <c r="E31" s="11">
         <v>95</v>
       </c>
-      <c r="F31" s="11"/>
+      <c r="F31" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G31" s="13">
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="I31" s="12" t="s">
         <v>32</v>
       </c>
@@ -1886,12 +2061,16 @@
       <c r="E32" s="11">
         <v>130</v>
       </c>
-      <c r="F32" s="11"/>
+      <c r="F32" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G32" s="13">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="I32" s="12" t="s">
         <v>32</v>
       </c>
@@ -1922,12 +2101,16 @@
       <c r="E33" s="11">
         <v>165</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="I33" s="12" t="s">
         <v>32</v>
       </c>
@@ -1958,12 +2141,16 @@
       <c r="E34" s="11">
         <v>200</v>
       </c>
-      <c r="F34" s="11"/>
+      <c r="F34" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G34" s="13">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="I34" s="12" t="s">
         <v>32</v>
       </c>
@@ -1994,12 +2181,16 @@
       <c r="E35" s="11">
         <v>235</v>
       </c>
-      <c r="F35" s="11"/>
+      <c r="F35" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G35" s="13">
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="I35" s="12" t="s">
         <v>32</v>
       </c>
@@ -2030,12 +2221,16 @@
       <c r="E36" s="11">
         <v>270</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="I36" s="12" t="s">
         <v>32</v>
       </c>
@@ -2060,18 +2255,22 @@
         <v>8</v>
       </c>
       <c r="D37" s="13">
-        <f t="shared" ref="D37:D68" si="2">INT(J37*E37)</f>
+        <f t="shared" ref="D37:D60" si="2">INT(J37*E37)</f>
         <v>15</v>
       </c>
       <c r="E37" s="17">
         <v>30</v>
       </c>
-      <c r="F37" s="17"/>
+      <c r="F37" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G37" s="13">
         <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
         <v>75</v>
       </c>
-      <c r="H37" s="13"/>
+      <c r="H37" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="I37" s="24" t="s">
         <v>48</v>
       </c>
@@ -2102,12 +2301,16 @@
       <c r="E38" s="17">
         <v>65</v>
       </c>
-      <c r="F38" s="17"/>
+      <c r="F38" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G38" s="13">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="H38" s="13"/>
+      <c r="H38" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I38" s="24" t="s">
         <v>48</v>
       </c>
@@ -2138,12 +2341,16 @@
       <c r="E39" s="17">
         <v>100</v>
       </c>
-      <c r="F39" s="17"/>
+      <c r="F39" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I39" s="24" t="s">
         <v>48</v>
       </c>
@@ -2174,12 +2381,16 @@
       <c r="E40" s="17">
         <v>135</v>
       </c>
-      <c r="F40" s="17"/>
+      <c r="F40" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G40" s="13">
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
-      <c r="H40" s="13"/>
+      <c r="H40" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I40" s="24" t="s">
         <v>48</v>
       </c>
@@ -2210,12 +2421,16 @@
       <c r="E41" s="17">
         <v>170</v>
       </c>
-      <c r="F41" s="17"/>
+      <c r="F41" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G41" s="13">
         <f t="shared" si="3"/>
         <v>11220</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I41" s="24" t="s">
         <v>48</v>
       </c>
@@ -2246,12 +2461,16 @@
       <c r="E42" s="17">
         <v>205</v>
       </c>
-      <c r="F42" s="17"/>
+      <c r="F42" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G42" s="13">
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I42" s="24" t="s">
         <v>48</v>
       </c>
@@ -2282,12 +2501,16 @@
       <c r="E43" s="17">
         <v>240</v>
       </c>
-      <c r="F43" s="17"/>
+      <c r="F43" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G43" s="13">
         <f t="shared" si="3"/>
         <v>22560</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I43" s="24" t="s">
         <v>48</v>
       </c>
@@ -2318,12 +2541,16 @@
       <c r="E44" s="17">
         <v>275</v>
       </c>
-      <c r="F44" s="17"/>
+      <c r="F44" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G44" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I44" s="24" t="s">
         <v>48</v>
       </c>
@@ -2354,12 +2581,16 @@
       <c r="E45" s="20">
         <v>35</v>
       </c>
-      <c r="F45" s="20"/>
+      <c r="F45" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G45" s="13">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="I45" s="25" t="s">
         <v>46</v>
       </c>
@@ -2390,12 +2621,16 @@
       <c r="E46" s="20">
         <v>70</v>
       </c>
-      <c r="F46" s="20"/>
+      <c r="F46" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G46" s="13">
         <f t="shared" si="3"/>
         <v>910</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I46" s="25" t="s">
         <v>46</v>
       </c>
@@ -2426,12 +2661,16 @@
       <c r="E47" s="20">
         <v>105</v>
       </c>
-      <c r="F47" s="20"/>
+      <c r="F47" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G47" s="13">
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I47" s="25" t="s">
         <v>46</v>
       </c>
@@ -2462,12 +2701,16 @@
       <c r="E48" s="20">
         <v>140</v>
       </c>
-      <c r="F48" s="20"/>
+      <c r="F48" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G48" s="13">
         <f t="shared" si="3"/>
         <v>7560</v>
       </c>
-      <c r="H48" s="13"/>
+      <c r="H48" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I48" s="25" t="s">
         <v>46</v>
       </c>
@@ -2498,12 +2741,16 @@
       <c r="E49" s="20">
         <v>175</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G49" s="13">
         <f t="shared" si="3"/>
         <v>11900</v>
       </c>
-      <c r="H49" s="13"/>
+      <c r="H49" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I49" s="25" t="s">
         <v>46</v>
       </c>
@@ -2534,12 +2781,16 @@
       <c r="E50" s="20">
         <v>210</v>
       </c>
-      <c r="F50" s="20"/>
+      <c r="F50" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G50" s="13">
         <f t="shared" si="3"/>
         <v>17220</v>
       </c>
-      <c r="H50" s="13"/>
+      <c r="H50" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I50" s="25" t="s">
         <v>46</v>
       </c>
@@ -2570,12 +2821,16 @@
       <c r="E51" s="20">
         <v>245</v>
       </c>
-      <c r="F51" s="20"/>
+      <c r="F51" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G51" s="13">
         <f t="shared" si="3"/>
         <v>23520</v>
       </c>
-      <c r="H51" s="13"/>
+      <c r="H51" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I51" s="25" t="s">
         <v>46</v>
       </c>
@@ -2606,12 +2861,16 @@
       <c r="E52" s="20">
         <v>280</v>
       </c>
-      <c r="F52" s="20"/>
+      <c r="F52" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G52" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="13"/>
+      <c r="H52" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I52" s="25" t="s">
         <v>48</v>
       </c>
@@ -2642,12 +2901,16 @@
       <c r="E53" s="23">
         <v>40</v>
       </c>
-      <c r="F53" s="23"/>
+      <c r="F53" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G53" s="13">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="H53" s="13"/>
+      <c r="H53" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="I53" s="10" t="s">
         <v>46</v>
       </c>
@@ -2678,12 +2941,16 @@
       <c r="E54" s="23">
         <v>75</v>
       </c>
-      <c r="F54" s="23"/>
+      <c r="F54" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G54" s="13">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="H54" s="13"/>
+      <c r="H54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="I54" s="10" t="s">
         <v>46</v>
       </c>
@@ -2714,12 +2981,16 @@
       <c r="E55" s="23">
         <v>110</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G55" s="13">
         <f t="shared" si="3"/>
         <v>3465</v>
       </c>
-      <c r="H55" s="13"/>
+      <c r="H55" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="I55" s="10" t="s">
         <v>46</v>
       </c>
@@ -2750,12 +3021,16 @@
       <c r="E56" s="23">
         <v>145</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G56" s="13">
         <f t="shared" si="3"/>
         <v>8120</v>
       </c>
-      <c r="H56" s="13"/>
+      <c r="H56" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="I56" s="10" t="s">
         <v>46</v>
       </c>
@@ -2786,12 +3061,16 @@
       <c r="E57" s="23">
         <v>180</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G57" s="13">
         <f t="shared" si="3"/>
         <v>12600</v>
       </c>
-      <c r="H57" s="13"/>
+      <c r="H57" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="I57" s="10" t="s">
         <v>46</v>
       </c>
@@ -2822,12 +3101,16 @@
       <c r="E58" s="23">
         <v>215</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G58" s="13">
         <f t="shared" si="3"/>
         <v>18060</v>
       </c>
-      <c r="H58" s="13"/>
+      <c r="H58" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="I58" s="10" t="s">
         <v>46</v>
       </c>
@@ -2858,12 +3141,16 @@
       <c r="E59" s="23">
         <v>250</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G59" s="13">
         <f t="shared" si="3"/>
         <v>24500</v>
       </c>
-      <c r="H59" s="13"/>
+      <c r="H59" s="26" t="s">
+        <v>64</v>
+      </c>
       <c r="I59" s="10" t="s">
         <v>46</v>
       </c>
@@ -2894,12 +3181,16 @@
       <c r="E60" s="23">
         <v>285</v>
       </c>
-      <c r="F60" s="23"/>
+      <c r="F60" s="26" t="s">
+        <v>72</v>
+      </c>
       <c r="G60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H60" s="13"/>
+      <c r="H60" s="26" t="s">
+        <v>65</v>
+      </c>
       <c r="I60" s="10" t="s">
         <v>46</v>
       </c>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -319,7 +319,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000|2-500|3-300|4-1500|10-1000</t>
+    <t>1-1000|2-500|3-300|4-1500|10-1000|5-1000|6-1000|7-1000|8-1000|9-1000|11-1000|12-1000|13-1000|14-1000|15-1000|16-1000|17-1000|18-1000||19-1000|20-1000|21-1000|22-1000|23-1000|24-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53:F60"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="137.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -319,7 +319,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000|2-500|3-300|4-1500|10-1000|5-1000|6-1000|7-1000|8-1000|9-1000|11-1000|12-1000|13-1000|14-1000|15-1000|16-1000|17-1000|18-1000||19-1000|20-1000|21-1000|22-1000|23-1000|24-1000</t>
+    <t>1-1000|2-500|3-300|4-1500|10-1000|5-1000|6-1000|7-1000|8-1000|9-1000|11-1000|20001-1000|20002-1000|20003-1000|20004-1000|20005-1000|20006-1000|20007-1000||20008-1000|20009-1000|20010-1000|20011-1000|20012-1000|20013-1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +828,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="137.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="185.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="70">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -257,17 +257,6 @@
   </si>
   <si>
     <t>升级需要的道具(道具id-数量|道具id-数量)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-0|2-0</t>
-  </si>
-  <si>
-    <t>1-0|2-0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-0|10-0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -828,8 +817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" activeCellId="14" sqref="H5 H6 H6 H13 H14 H21 H22 H29 H30 H37 H38 H45 H46 H53 H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,15 +971,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G36" si="1">INT(L5*D5)</f>
         <v>5</v>
       </c>
-      <c r="H5" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="26"/>
       <c r="I5" s="14" t="s">
         <v>29</v>
       </c>
@@ -1022,15 +1009,13 @@
         <v>45</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
         <v>360</v>
       </c>
-      <c r="H6" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H6" s="13"/>
       <c r="I6" s="14" t="s">
         <v>29</v>
       </c>
@@ -1062,14 +1047,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>29</v>
@@ -1102,14 +1087,14 @@
         <v>115</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>29</v>
@@ -1142,14 +1127,14 @@
         <v>150</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>29</v>
@@ -1182,14 +1167,14 @@
         <v>185</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>13320</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>29</v>
@@ -1222,14 +1207,14 @@
         <v>220</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18920</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>29</v>
@@ -1262,14 +1247,14 @@
         <v>255</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>29</v>
@@ -1302,15 +1287,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H13" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="10" t="s">
         <v>47</v>
       </c>
@@ -1342,15 +1325,13 @@
         <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H14" s="13"/>
       <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1382,14 +1363,14 @@
         <v>85</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>30</v>
@@ -1422,14 +1403,14 @@
         <v>120</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>30</v>
@@ -1462,14 +1443,14 @@
         <v>155</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>30</v>
@@ -1502,14 +1483,14 @@
         <v>190</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -1542,14 +1523,14 @@
         <v>225</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>30</v>
@@ -1582,14 +1563,14 @@
         <v>260</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>30</v>
@@ -1622,15 +1603,13 @@
         <v>20</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="H21" s="26"/>
       <c r="I21" s="8" t="s">
         <v>31</v>
       </c>
@@ -1662,15 +1641,13 @@
         <v>55</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="H22" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="H22" s="26"/>
       <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
@@ -1702,14 +1679,14 @@
         <v>90</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
@@ -1742,14 +1719,14 @@
         <v>125</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
@@ -1782,14 +1759,14 @@
         <v>160</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
@@ -1822,14 +1799,14 @@
         <v>195</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
@@ -1862,14 +1839,14 @@
         <v>230</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>31</v>
@@ -1902,14 +1879,14 @@
         <v>265</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>31</v>
@@ -1942,15 +1919,13 @@
         <v>25</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H29" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="H29" s="26"/>
       <c r="I29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1982,15 +1957,13 @@
         <v>60</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="H30" s="26" t="s">
-        <v>59</v>
-      </c>
+      <c r="H30" s="26"/>
       <c r="I30" s="12" t="s">
         <v>32</v>
       </c>
@@ -2022,14 +1995,14 @@
         <v>95</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>32</v>
@@ -2062,14 +2035,14 @@
         <v>130</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>32</v>
@@ -2102,14 +2075,14 @@
         <v>165</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>32</v>
@@ -2142,14 +2115,14 @@
         <v>200</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>32</v>
@@ -2182,14 +2155,14 @@
         <v>235</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>32</v>
@@ -2222,14 +2195,14 @@
         <v>270</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>32</v>
@@ -2262,15 +2235,13 @@
         <v>30</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
         <v>75</v>
       </c>
-      <c r="H37" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H37" s="26"/>
       <c r="I37" s="24" t="s">
         <v>48</v>
       </c>
@@ -2302,15 +2273,13 @@
         <v>65</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H38" s="13"/>
       <c r="I38" s="24" t="s">
         <v>48</v>
       </c>
@@ -2342,14 +2311,14 @@
         <v>100</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>48</v>
@@ -2382,14 +2351,14 @@
         <v>135</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>48</v>
@@ -2422,14 +2391,14 @@
         <v>170</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="3"/>
         <v>11220</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>48</v>
@@ -2462,14 +2431,14 @@
         <v>205</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>48</v>
@@ -2502,14 +2471,14 @@
         <v>240</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="3"/>
         <v>22560</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>48</v>
@@ -2542,14 +2511,14 @@
         <v>275</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>48</v>
@@ -2582,15 +2551,13 @@
         <v>35</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G45" s="13">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H45" s="26"/>
       <c r="I45" s="25" t="s">
         <v>46</v>
       </c>
@@ -2622,15 +2589,13 @@
         <v>70</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="3"/>
         <v>910</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H46" s="13"/>
       <c r="I46" s="25" t="s">
         <v>46</v>
       </c>
@@ -2662,14 +2627,14 @@
         <v>105</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>46</v>
@@ -2702,14 +2667,14 @@
         <v>140</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="3"/>
         <v>7560</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>46</v>
@@ -2742,14 +2707,14 @@
         <v>175</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="3"/>
         <v>11900</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>46</v>
@@ -2782,14 +2747,14 @@
         <v>210</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="3"/>
         <v>17220</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>46</v>
@@ -2822,14 +2787,14 @@
         <v>245</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="3"/>
         <v>23520</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>46</v>
@@ -2862,14 +2827,14 @@
         <v>280</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>48</v>
@@ -2902,15 +2867,13 @@
         <v>40</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="H53" s="26" t="s">
-        <v>58</v>
-      </c>
+      <c r="H53" s="26"/>
       <c r="I53" s="10" t="s">
         <v>46</v>
       </c>
@@ -2942,15 +2905,13 @@
         <v>75</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G54" s="13">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H54" s="13"/>
       <c r="I54" s="10" t="s">
         <v>46</v>
       </c>
@@ -2982,14 +2943,14 @@
         <v>110</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G55" s="13">
         <f t="shared" si="3"/>
         <v>3465</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>46</v>
@@ -3022,14 +2983,14 @@
         <v>145</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G56" s="13">
         <f t="shared" si="3"/>
         <v>8120</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>46</v>
@@ -3062,14 +3023,14 @@
         <v>180</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G57" s="13">
         <f t="shared" si="3"/>
         <v>12600</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>46</v>
@@ -3102,14 +3063,14 @@
         <v>215</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G58" s="13">
         <f t="shared" si="3"/>
         <v>18060</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>46</v>
@@ -3142,14 +3103,14 @@
         <v>250</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G59" s="13">
         <f t="shared" si="3"/>
         <v>24500</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>46</v>
@@ -3182,14 +3143,14 @@
         <v>285</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>46</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -308,7 +308,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000|2-500|3-300|4-1500|10-1000|5-1000|6-1000|7-1000|8-1000|9-1000|11-1000|20001-1000|20002-1000|20003-1000|20004-1000|20005-1000|20006-1000|20007-1000||20008-1000|20009-1000|20010-1000|20011-1000|20012-1000|20013-1000</t>
+    <t>1-1000-1|2-500-1|3-300-1|4-1500-1|10-1000-1|5-1000-1|6-1000-1|7-1000-1|8-1000-1|9-1000-1|11-1000-1|20001-1000-1|20002-1000-1|20003-1000-1|20004-1000-1|20005-1000-1|20006-1000-1|20007-1000-1|20008-1000-1|20009-1000-1|20010-1000-1|20011-1000-1|20012-1000-1|20013-1000-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,8 +817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" activeCellId="14" sqref="H5 H6 H6 H13 H14 H21 H22 H29 H30 H37 H38 H45 H46 H53 H54"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -828,7 +828,7 @@
     <col min="3" max="3" width="9.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.8984375" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.8984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="185.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="31.59765625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.296875" customWidth="1"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -308,7 +308,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-1000-1|2-500-1|3-300-1|4-1500-1|10-1000-1|5-1000-1|6-1000-1|7-1000-1|8-1000-1|9-1000-1|11-1000-1|20001-1000-1|20002-1000-1|20003-1000-1|20004-1000-1|20005-1000-1|20006-1000-1|20007-1000-1|20008-1000-1|20009-1000-1|20010-1000-1|20011-1000-1|20012-1000-1|20013-1000-1</t>
+    <t>120001-1000-1|120002-500-1|120003-300-1|120004-1500-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,8 +817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -308,7 +308,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120001-1000-1|120002-500-1|120003-300-1|120004-1500-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
+    <t>120001-1000-1|120002-500-1|120003-300-1|120004-1500-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,8 +817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -260,55 +260,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-10|2-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-20|2-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-40|2-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-80|2-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-160|2-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-320|2-160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5|10-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-10|10-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-20|10-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-40|10-80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-80|10-160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-160|10-320</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>120001-1000-1|120002-500-1|120003-300-1|120004-1500-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-10|120002-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-20|120002-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-40|120002-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-80|120002-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-160|120002-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120001-320|120002-160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-5|120005-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-10|120005-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-20|120005-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-40|120005-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-80|120005-160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120003-160|120005-320</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,8 +817,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:F60"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55:H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -971,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G36" si="1">INT(L5*D5)</f>
@@ -1009,7 +1009,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
@@ -1047,14 +1047,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>29</v>
@@ -1087,14 +1087,14 @@
         <v>115</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>29</v>
@@ -1127,14 +1127,14 @@
         <v>150</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>29</v>
@@ -1167,14 +1167,14 @@
         <v>185</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>13320</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>29</v>
@@ -1207,14 +1207,14 @@
         <v>220</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18920</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>29</v>
@@ -1247,14 +1247,14 @@
         <v>255</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>29</v>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="1"/>
@@ -1325,7 +1325,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
@@ -1363,14 +1363,14 @@
         <v>85</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>30</v>
@@ -1403,14 +1403,14 @@
         <v>120</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>30</v>
@@ -1443,14 +1443,14 @@
         <v>155</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>30</v>
@@ -1483,14 +1483,14 @@
         <v>190</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -1523,14 +1523,14 @@
         <v>225</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>30</v>
@@ -1563,14 +1563,14 @@
         <v>260</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>30</v>
@@ -1603,7 +1603,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="1"/>
@@ -1641,7 +1641,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="1"/>
@@ -1679,14 +1679,14 @@
         <v>90</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
@@ -1719,14 +1719,14 @@
         <v>125</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
@@ -1759,14 +1759,14 @@
         <v>160</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
@@ -1799,14 +1799,14 @@
         <v>195</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
@@ -1839,14 +1839,14 @@
         <v>230</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>31</v>
@@ -1879,14 +1879,14 @@
         <v>265</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>31</v>
@@ -1919,7 +1919,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
@@ -1957,7 +1957,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
@@ -1995,14 +1995,14 @@
         <v>95</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>32</v>
@@ -2035,14 +2035,14 @@
         <v>130</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>32</v>
@@ -2075,14 +2075,14 @@
         <v>165</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>32</v>
@@ -2115,14 +2115,14 @@
         <v>200</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>32</v>
@@ -2155,14 +2155,14 @@
         <v>235</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>32</v>
@@ -2195,14 +2195,14 @@
         <v>270</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>32</v>
@@ -2235,7 +2235,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
@@ -2273,7 +2273,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="3"/>
@@ -2311,14 +2311,14 @@
         <v>100</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>48</v>
@@ -2351,14 +2351,14 @@
         <v>135</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>48</v>
@@ -2391,14 +2391,14 @@
         <v>170</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" si="3"/>
         <v>11220</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>48</v>
@@ -2431,14 +2431,14 @@
         <v>205</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>48</v>
@@ -2471,14 +2471,14 @@
         <v>240</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="3"/>
         <v>22560</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>48</v>
@@ -2511,14 +2511,14 @@
         <v>275</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>48</v>
@@ -2551,7 +2551,7 @@
         <v>35</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G45" s="13">
         <f t="shared" si="3"/>
@@ -2589,7 +2589,7 @@
         <v>70</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="3"/>
@@ -2627,14 +2627,14 @@
         <v>105</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>46</v>
@@ -2667,14 +2667,14 @@
         <v>140</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="3"/>
         <v>7560</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>46</v>
@@ -2707,14 +2707,14 @@
         <v>175</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="3"/>
         <v>11900</v>
       </c>
       <c r="H49" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>46</v>
@@ -2747,14 +2747,14 @@
         <v>210</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="3"/>
         <v>17220</v>
       </c>
       <c r="H50" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>46</v>
@@ -2787,14 +2787,14 @@
         <v>245</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="3"/>
         <v>23520</v>
       </c>
       <c r="H51" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>46</v>
@@ -2827,14 +2827,14 @@
         <v>280</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>48</v>
@@ -2867,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G53" s="13">
         <f t="shared" si="3"/>
@@ -2905,7 +2905,7 @@
         <v>75</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G54" s="13">
         <f t="shared" si="3"/>
@@ -2943,14 +2943,14 @@
         <v>110</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G55" s="13">
         <f t="shared" si="3"/>
         <v>3465</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>46</v>
@@ -2983,14 +2983,14 @@
         <v>145</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G56" s="13">
         <f t="shared" si="3"/>
         <v>8120</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>46</v>
@@ -3023,14 +3023,14 @@
         <v>180</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G57" s="13">
         <f t="shared" si="3"/>
         <v>12600</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>46</v>
@@ -3063,14 +3063,14 @@
         <v>215</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G58" s="13">
         <f t="shared" si="3"/>
         <v>18060</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>46</v>
@@ -3103,14 +3103,14 @@
         <v>250</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G59" s="13">
         <f t="shared" si="3"/>
         <v>24500</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>46</v>
@@ -3143,14 +3143,14 @@
         <v>285</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G60" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>46</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
+    <workbookView xWindow="-330" yWindow="1230" windowWidth="27735" windowHeight="10830" tabRatio="367"/>
   </bookViews>
   <sheets>
     <sheet name="THouseCell" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,6 +472,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -817,8 +826,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55:H60"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1293,7 +1302,7 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="10" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1340,7 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="9"/>
       <c r="I14" s="10" t="s">
         <v>30</v>
       </c>
@@ -1369,7 +1378,7 @@
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="29" t="s">
         <v>58</v>
       </c>
       <c r="I15" s="10" t="s">
@@ -1409,7 +1418,7 @@
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="29" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -1449,7 +1458,7 @@
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="29" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="10" t="s">
@@ -1489,7 +1498,7 @@
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="29" t="s">
         <v>61</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -1529,7 +1538,7 @@
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="29" t="s">
         <v>62</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -1569,7 +1578,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="29" t="s">
         <v>63</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -1605,7 +1614,7 @@
       <c r="F21" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="7">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -1643,7 +1652,7 @@
       <c r="F22" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="7">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
@@ -1681,7 +1690,7 @@
       <c r="F23" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
@@ -1721,7 +1730,7 @@
       <c r="F24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
@@ -1761,7 +1770,7 @@
       <c r="F25" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="7">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
@@ -1801,7 +1810,7 @@
       <c r="F26" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="7">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
@@ -1841,7 +1850,7 @@
       <c r="F27" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="7">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
@@ -1881,7 +1890,7 @@
       <c r="F28" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1925,7 +1934,7 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H29" s="26"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="12" t="s">
         <v>32</v>
       </c>
@@ -1963,7 +1972,7 @@
         <f t="shared" si="1"/>
         <v>660</v>
       </c>
-      <c r="H30" s="26"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="12" t="s">
         <v>32</v>
       </c>
@@ -2001,7 +2010,7 @@
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="28" t="s">
         <v>64</v>
       </c>
       <c r="I31" s="12" t="s">
@@ -2041,7 +2050,7 @@
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
-      <c r="H32" s="26" t="s">
+      <c r="H32" s="28" t="s">
         <v>65</v>
       </c>
       <c r="I32" s="12" t="s">
@@ -2081,7 +2090,7 @@
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="28" t="s">
         <v>66</v>
       </c>
       <c r="I33" s="12" t="s">
@@ -2121,7 +2130,7 @@
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="28" t="s">
         <v>67</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -2161,7 +2170,7 @@
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="28" t="s">
         <v>68</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2201,7 +2210,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="28" t="s">
         <v>69</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -2237,7 +2246,7 @@
       <c r="F37" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="18">
         <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
         <v>75</v>
       </c>
@@ -2275,7 +2284,7 @@
       <c r="F38" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="18">
         <f t="shared" si="3"/>
         <v>780</v>
       </c>
@@ -2313,7 +2322,7 @@
       <c r="F39" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="18">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
@@ -2353,7 +2362,7 @@
       <c r="F40" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="18">
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
@@ -2393,7 +2402,7 @@
       <c r="F41" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="18">
         <f t="shared" si="3"/>
         <v>11220</v>
       </c>
@@ -2433,7 +2442,7 @@
       <c r="F42" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="18">
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
@@ -2473,7 +2482,7 @@
       <c r="F43" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="18">
         <f t="shared" si="3"/>
         <v>22560</v>
       </c>
@@ -2513,7 +2522,7 @@
       <c r="F44" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2557,7 +2566,7 @@
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="H45" s="26"/>
+      <c r="H45" s="27"/>
       <c r="I45" s="25" t="s">
         <v>46</v>
       </c>
@@ -2595,7 +2604,7 @@
         <f t="shared" si="3"/>
         <v>910</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="25" t="s">
         <v>46</v>
       </c>
@@ -2633,7 +2642,7 @@
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
-      <c r="H47" s="26" t="s">
+      <c r="H47" s="27" t="s">
         <v>58</v>
       </c>
       <c r="I47" s="25" t="s">
@@ -2673,7 +2682,7 @@
         <f t="shared" si="3"/>
         <v>7560</v>
       </c>
-      <c r="H48" s="26" t="s">
+      <c r="H48" s="27" t="s">
         <v>59</v>
       </c>
       <c r="I48" s="25" t="s">
@@ -2713,7 +2722,7 @@
         <f t="shared" si="3"/>
         <v>11900</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="27" t="s">
         <v>60</v>
       </c>
       <c r="I49" s="25" t="s">
@@ -2753,7 +2762,7 @@
         <f t="shared" si="3"/>
         <v>17220</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="27" t="s">
         <v>61</v>
       </c>
       <c r="I50" s="25" t="s">
@@ -2793,7 +2802,7 @@
         <f t="shared" si="3"/>
         <v>23520</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="27" t="s">
         <v>62</v>
       </c>
       <c r="I51" s="25" t="s">
@@ -2833,7 +2842,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="26" t="s">
+      <c r="H52" s="27" t="s">
         <v>63</v>
       </c>
       <c r="I52" s="25" t="s">
@@ -2869,7 +2878,7 @@
       <c r="F53" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="9">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
@@ -2907,7 +2916,7 @@
       <c r="F54" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="9">
         <f t="shared" si="3"/>
         <v>1050</v>
       </c>
@@ -2945,7 +2954,7 @@
       <c r="F55" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="9">
         <f t="shared" si="3"/>
         <v>3465</v>
       </c>
@@ -2985,7 +2994,7 @@
       <c r="F56" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="9">
         <f t="shared" si="3"/>
         <v>8120</v>
       </c>
@@ -3025,7 +3034,7 @@
       <c r="F57" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="9">
         <f t="shared" si="3"/>
         <v>12600</v>
       </c>
@@ -3065,7 +3074,7 @@
       <c r="F58" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="9">
         <f t="shared" si="3"/>
         <v>18060</v>
       </c>
@@ -3105,7 +3114,7 @@
       <c r="F59" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="9">
         <f t="shared" si="3"/>
         <v>24500</v>
       </c>
@@ -3145,7 +3154,7 @@
       <c r="F60" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -260,10 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120001-1000-1|120002-500-1|120003-300-1|120004-1500-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>120001-10|120002-5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -309,6 +305,10 @@
   </si>
   <si>
     <t>120003-160|120005-320</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +826,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G5" s="13">
         <f t="shared" ref="G5:G36" si="1">INT(L5*D5)</f>
@@ -1018,7 +1018,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="1"/>
@@ -1056,14 +1056,14 @@
         <v>80</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>29</v>
@@ -1096,14 +1096,14 @@
         <v>115</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G8" s="13">
         <f t="shared" si="1"/>
         <v>5060</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>29</v>
@@ -1136,14 +1136,14 @@
         <v>150</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G9" s="13">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>29</v>
@@ -1176,14 +1176,14 @@
         <v>185</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G10" s="13">
         <f t="shared" si="1"/>
         <v>13320</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>29</v>
@@ -1216,14 +1216,14 @@
         <v>220</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G11" s="13">
         <f t="shared" si="1"/>
         <v>18920</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>29</v>
@@ -1256,14 +1256,14 @@
         <v>255</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>29</v>
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="1"/>
@@ -1334,7 +1334,7 @@
         <v>50</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="1"/>
@@ -1372,14 +1372,14 @@
         <v>85</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>30</v>
@@ -1412,14 +1412,14 @@
         <v>120</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>30</v>
@@ -1452,14 +1452,14 @@
         <v>155</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="1"/>
         <v>9300</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>30</v>
@@ -1492,14 +1492,14 @@
         <v>190</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="1"/>
         <v>14060</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>30</v>
@@ -1532,14 +1532,14 @@
         <v>225</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="1"/>
         <v>19800</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>30</v>
@@ -1572,14 +1572,14 @@
         <v>260</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>30</v>
@@ -1612,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G21" s="7">
         <f t="shared" si="1"/>
@@ -1650,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G22" s="7">
         <f t="shared" si="1"/>
@@ -1688,14 +1688,14 @@
         <v>90</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G23" s="7">
         <f t="shared" si="1"/>
         <v>2295</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
@@ -1728,14 +1728,14 @@
         <v>125</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
@@ -1768,14 +1768,14 @@
         <v>160</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7">
         <f t="shared" si="1"/>
         <v>9920</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
@@ -1808,14 +1808,14 @@
         <v>195</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G26" s="7">
         <f t="shared" si="1"/>
         <v>14820</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
@@ -1848,14 +1848,14 @@
         <v>230</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G27" s="7">
         <f t="shared" si="1"/>
         <v>20700</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>31</v>
@@ -1888,14 +1888,14 @@
         <v>265</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>31</v>
@@ -1928,7 +1928,7 @@
         <v>25</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="1"/>
@@ -1966,7 +1966,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="1"/>
@@ -2004,14 +2004,14 @@
         <v>95</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="1"/>
         <v>2565</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="12" t="s">
         <v>32</v>
@@ -2044,14 +2044,14 @@
         <v>130</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="1"/>
         <v>6500</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I32" s="12" t="s">
         <v>32</v>
@@ -2084,14 +2084,14 @@
         <v>165</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="1"/>
         <v>10560</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I33" s="12" t="s">
         <v>32</v>
@@ -2124,14 +2124,14 @@
         <v>200</v>
       </c>
       <c r="F34" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="1"/>
         <v>15600</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="12" t="s">
         <v>32</v>
@@ -2164,14 +2164,14 @@
         <v>235</v>
       </c>
       <c r="F35" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="1"/>
         <v>21620</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I35" s="12" t="s">
         <v>32</v>
@@ -2204,14 +2204,14 @@
         <v>270</v>
       </c>
       <c r="F36" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>32</v>
@@ -2244,7 +2244,7 @@
         <v>30</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G37" s="18">
         <f t="shared" ref="G37:G60" si="3">INT(L37*D37)</f>
@@ -2282,7 +2282,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G38" s="18">
         <f t="shared" si="3"/>
@@ -2320,14 +2320,14 @@
         <v>100</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G39" s="18">
         <f t="shared" si="3"/>
         <v>2850</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I39" s="24" t="s">
         <v>48</v>
@@ -2360,14 +2360,14 @@
         <v>135</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G40" s="18">
         <f t="shared" si="3"/>
         <v>7020</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I40" s="24" t="s">
         <v>48</v>
@@ -2400,14 +2400,14 @@
         <v>170</v>
       </c>
       <c r="F41" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G41" s="18">
         <f t="shared" si="3"/>
         <v>11220</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I41" s="24" t="s">
         <v>48</v>
@@ -2440,14 +2440,14 @@
         <v>205</v>
       </c>
       <c r="F42" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G42" s="18">
         <f t="shared" si="3"/>
         <v>16400</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I42" s="24" t="s">
         <v>48</v>
@@ -2480,14 +2480,14 @@
         <v>240</v>
       </c>
       <c r="F43" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G43" s="18">
         <f t="shared" si="3"/>
         <v>22560</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>48</v>
@@ -2520,14 +2520,14 @@
         <v>275</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>48</v>
@@ -2560,7 +2560,7 @@
         <v>35</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G45" s="13">
         <f t="shared" si="3"/>
@@ -2598,7 +2598,7 @@
         <v>70</v>
       </c>
       <c r="F46" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="3"/>
@@ -2636,14 +2636,14 @@
         <v>105</v>
       </c>
       <c r="F47" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="3"/>
         <v>3150</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I47" s="25" t="s">
         <v>46</v>
@@ -2676,14 +2676,14 @@
         <v>140</v>
       </c>
       <c r="F48" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="3"/>
         <v>7560</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I48" s="25" t="s">
         <v>46</v>
@@ -2716,14 +2716,14 @@
         <v>175</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="3"/>
         <v>11900</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I49" s="25" t="s">
         <v>46</v>
@@ -2756,14 +2756,14 @@
         <v>210</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="3"/>
         <v>17220</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I50" s="25" t="s">
         <v>46</v>
@@ -2796,14 +2796,14 @@
         <v>245</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="3"/>
         <v>23520</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I51" s="25" t="s">
         <v>46</v>
@@ -2836,14 +2836,14 @@
         <v>280</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G52" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I52" s="25" t="s">
         <v>48</v>
@@ -2876,7 +2876,7 @@
         <v>40</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G53" s="9">
         <f t="shared" si="3"/>
@@ -2914,7 +2914,7 @@
         <v>75</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G54" s="9">
         <f t="shared" si="3"/>
@@ -2952,14 +2952,14 @@
         <v>110</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G55" s="9">
         <f t="shared" si="3"/>
         <v>3465</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>46</v>
@@ -2992,14 +2992,14 @@
         <v>145</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G56" s="9">
         <f t="shared" si="3"/>
         <v>8120</v>
       </c>
       <c r="H56" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>46</v>
@@ -3032,14 +3032,14 @@
         <v>180</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G57" s="9">
         <f t="shared" si="3"/>
         <v>12600</v>
       </c>
       <c r="H57" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>46</v>
@@ -3072,14 +3072,14 @@
         <v>215</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G58" s="9">
         <f t="shared" si="3"/>
         <v>18060</v>
       </c>
       <c r="H58" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>46</v>
@@ -3112,14 +3112,14 @@
         <v>250</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G59" s="9">
         <f t="shared" si="3"/>
         <v>24500</v>
       </c>
       <c r="H59" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>46</v>
@@ -3152,14 +3152,14 @@
         <v>285</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G60" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H60" s="26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>46</v>

--- a/docs/excel/THouseCell.xlsx
+++ b/docs/excel/THouseCell.xlsx
@@ -308,7 +308,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
+    <t>120001-1000-1|120002-1000-1|120003-1000-1|120004-1000-1|120005-1000-1|130001-1000-1|130002-1000-1|130003-1000-1|130004-1000-1|130005-1000-1|130006-1000-1|130007-1000-1|130008-1000-1|130009-1000-1|130010-1000-1|130011-1000-1|130012-1000-1|130013-1000-1|130014-1000-1|130015-1000-1|130016-1000-1|130017-1000-1|130018-1000-1|130019-1000-1|130020-1000-1|130021-1000-1|130022-1000-1|130023-1000-1|130024-1000-1|130025-1000-1|140001-1000-1|110001-1000-1|110002-1000-1|110003-1000-1|110004-1000-1|110005-1000-1|110006-1000-1|110007-1000-1|110008-1000-1|110009-1000-1|110010-1000-1|110011-1000-1|110012-1000-1|110013-1000-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +826,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58:F60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54:F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
